--- a/VT_REG1_ELC_V12.xlsx
+++ b/VT_REG1_ELC_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA2p0\Veda\Veda_models\TEST-VedaOnline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F285464-C26D-4EE5-8AAA-6C1B248B09E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483BBB0E-BC70-4B7E-A2AE-B3A1F11F22D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" tabRatio="901" activeTab="3"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -26,12 +26,17 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +44,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -259,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P15" authorId="2" shapeId="0">
+    <comment ref="P15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -438,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="1" shapeId="0">
+    <comment ref="Q15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -463,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R15" authorId="2" shapeId="0">
+    <comment ref="R15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -526,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0">
+    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -774,14 +779,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="T3" authorId="0" shapeId="0">
+    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -895,7 +900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y3" authorId="1" shapeId="0">
+    <comment ref="Y3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -921,7 +926,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z3" authorId="2" shapeId="0">
+    <comment ref="Z3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -994,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA3" authorId="2" shapeId="0">
+    <comment ref="AA3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1047,7 +1052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB3" authorId="2" shapeId="0">
+    <comment ref="AB3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1080,7 +1085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z9" authorId="2" shapeId="0">
+    <comment ref="Z9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1173,7 +1178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA9" authorId="1" shapeId="0">
+    <comment ref="AA9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1198,7 +1203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB9" authorId="2" shapeId="0">
+    <comment ref="AB9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1261,7 +1266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T10" authorId="2" shapeId="0">
+    <comment ref="T10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1509,7 +1514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="170">
   <si>
     <t>CommName</t>
   </si>
@@ -2013,21 +2018,27 @@
   </si>
   <si>
     <t>AFA</t>
+  </si>
+  <si>
+    <t>User input</t>
+  </si>
+  <si>
+    <t>ciao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="188" formatCode="0.0"/>
-    <numFmt numFmtId="190" formatCode="0.0000"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2057,32 +2068,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -2578,67 +2563,63 @@
   </borders>
   <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2647,87 +2628,83 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="22" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="22" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="20" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="16" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2736,113 +2713,101 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="188" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="16" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2851,32 +2816,32 @@
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="9"/>
-    <cellStyle name="Normal 2" xfId="10"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle name="Normal 4 2" xfId="12"/>
-    <cellStyle name="Normal 8" xfId="13"/>
-    <cellStyle name="Normal 9 2" xfId="14"/>
-    <cellStyle name="Normale_B2020" xfId="15"/>
+    <cellStyle name="Normal 10" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Percent" xfId="16" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="17"/>
-    <cellStyle name="Percent 3" xfId="18"/>
-    <cellStyle name="Percent 3 2" xfId="19"/>
-    <cellStyle name="Percent 3 3" xfId="20"/>
-    <cellStyle name="Percent 3 4" xfId="21"/>
-    <cellStyle name="Percent 4" xfId="22"/>
-    <cellStyle name="Percent 4 2" xfId="23"/>
-    <cellStyle name="Percent 4 3" xfId="24"/>
-    <cellStyle name="Percent 4 4" xfId="25"/>
-    <cellStyle name="Percent 5" xfId="26"/>
-    <cellStyle name="Percent 6" xfId="27"/>
-    <cellStyle name="Percent 7" xfId="28"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="29"/>
+    <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 3 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 3 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 4 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 4 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Percent 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Percent 6" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Percent 7" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3598,7 +3563,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3733,7 +3698,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="EnergyBalance"/>
@@ -4335,11 +4300,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AA17"/>
+  <dimension ref="B1:AA17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
@@ -4362,8 +4327,8 @@
     <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="X1" s="23" t="s">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="X1" s="19" t="s">
         <v>78</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -4376,676 +4341,656 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="7"/>
-      <c r="D2" s="48" t="s">
+    <row r="2" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="U2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="48" t="s">
+      <c r="V2" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="47" t="s">
+      <c r="Y2" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C3" s="67" t="s">
+    <row r="3" spans="2:27" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C3" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="Q3" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="R3" s="49" t="s">
+      <c r="R3" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="49" t="s">
+      <c r="T3" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="49" t="s">
+      <c r="U3" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="49" t="s">
+      <c r="V3" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B4" s="46"/>
-      <c r="C4" s="83" t="s">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B4" s="38"/>
+      <c r="C4" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="84"/>
-      <c r="X4" s="6"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="50" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="75"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="43">
         <f>[2]EB1!D10</f>
         <v>-37.464700000000001</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="43">
         <f>[2]EB1!E10</f>
         <v>-317.19200000000001</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="43">
         <f>[2]EB1!F10</f>
         <v>0</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="43">
         <f>[2]EB1!G10</f>
         <v>-16.283999999999999</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="43">
         <f>[2]EB1!H10</f>
         <v>-2.1499999999999998E-2</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="43">
         <f>[2]EB1!I10</f>
         <v>-528.76099999999997</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="43">
         <f>[2]EB1!J10</f>
         <v>-164.50800000000001</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="43">
         <f>[2]EB1!K10</f>
         <v>-0.61599999999999999</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="43">
         <f>[2]EB1!L10</f>
         <v>-205.88</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="43">
         <f>[2]EB1!M10</f>
         <v>0</v>
       </c>
-      <c r="N5" s="51">
+      <c r="N5" s="43">
         <f>[2]EB1!N10</f>
         <v>0</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="43">
         <f>[2]EB1!O10</f>
         <v>-3.21225</v>
       </c>
-      <c r="P5" s="51">
+      <c r="P5" s="43">
         <f>[2]EB1!P10</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="43">
         <f>[2]EB1!Q10</f>
         <v>0</v>
       </c>
-      <c r="R5" s="51">
+      <c r="R5" s="43">
         <f>[2]EB1!R10</f>
         <v>0</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="43">
         <f>[2]EB1!S10</f>
         <v>-0.76</v>
       </c>
-      <c r="T5" s="51">
+      <c r="T5" s="43">
         <f>[2]EB1!T10</f>
         <v>0</v>
       </c>
-      <c r="U5" s="51">
+      <c r="U5" s="43">
         <f>[2]EB1!U10</f>
         <v>0</v>
       </c>
-      <c r="V5" s="85">
+      <c r="V5" s="76">
         <f>[2]EB1!V10</f>
         <v>-1274.6994499999998</v>
       </c>
-      <c r="X5" s="6"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+    </row>
+    <row r="6" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="46">
         <f>[2]EB1!D11</f>
         <v>-6238.7780000000012</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="45">
         <f>[2]EB1!E11</f>
         <v>-2254.2175999999999</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="45">
         <f>[2]EB1!F11</f>
         <v>0</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="45">
         <f>[2]EB1!G11</f>
         <v>-30.160499999999999</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="45">
         <f>[2]EB1!H11</f>
         <v>0</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="45">
         <f>[2]EB1!I11</f>
         <v>-23.835000000000001</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="45">
         <f>[2]EB1!J11</f>
         <v>0</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="45">
         <f>[2]EB1!K11</f>
         <v>0</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="45">
         <f>[2]EB1!L11</f>
         <v>-524.78</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="45">
         <f>[2]EB1!M11</f>
         <v>-33.529000000000003</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="45">
         <f>[2]EB1!N11</f>
         <v>-4455</v>
       </c>
-      <c r="O6" s="53">
+      <c r="O6" s="45">
         <f>[2]EB1!O11</f>
         <v>-527.25918750000005</v>
       </c>
-      <c r="P6" s="53">
+      <c r="P6" s="45">
         <f>[2]EB1!P11</f>
         <v>-502.66000000000008</v>
       </c>
-      <c r="Q6" s="53">
+      <c r="Q6" s="45">
         <f>[2]EB1!Q11</f>
         <v>-263.8965</v>
       </c>
-      <c r="R6" s="53">
+      <c r="R6" s="45">
         <f>[2]EB1!R11</f>
         <v>-68</v>
       </c>
-      <c r="S6" s="51">
+      <c r="S6" s="43">
         <f>[2]EB1!S11</f>
         <v>-16.474499999999999</v>
       </c>
-      <c r="T6" s="51">
+      <c r="T6" s="43">
         <f>[2]EB1!T11</f>
         <v>868.77949999999998</v>
       </c>
-      <c r="U6" s="53">
+      <c r="U6" s="45">
         <f>[2]EB1!U11</f>
         <v>5790.5</v>
       </c>
-      <c r="V6" s="85">
+      <c r="V6" s="76">
         <f>[2]EB1!V11</f>
         <v>-8279.3107875000023</v>
       </c>
-      <c r="X6" s="95"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B7" s="50" t="s">
+      <c r="X6" s="83"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="43">
         <f>[2]EB1!D12</f>
         <v>-104.9074</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="43">
         <f>[2]EB1!E12</f>
         <v>-120.5204</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="43">
         <f>[2]EB1!F12</f>
         <v>0</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="43">
         <f>[2]EB1!G12</f>
         <v>-7.6189999999999998</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="43">
         <f>[2]EB1!H12</f>
         <v>0</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="43">
         <f>[2]EB1!I12</f>
         <v>-0.23350000000000001</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="43">
         <f>[2]EB1!J12</f>
         <v>0</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="43">
         <f>[2]EB1!K12</f>
         <v>0</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="43">
         <f>[2]EB1!L12</f>
         <v>-15.2</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="43">
         <f>[2]EB1!M12</f>
         <v>-1.772</v>
       </c>
-      <c r="N7" s="51">
+      <c r="N7" s="43">
         <f>[2]EB1!N12</f>
         <v>0</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="43">
         <f>[2]EB1!O12</f>
         <v>-105.15525</v>
       </c>
-      <c r="P7" s="51">
+      <c r="P7" s="43">
         <f>[2]EB1!P12</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="43">
         <f>[2]EB1!Q12</f>
         <v>0</v>
       </c>
-      <c r="R7" s="51">
+      <c r="R7" s="43">
         <f>[2]EB1!R12</f>
         <v>0</v>
       </c>
-      <c r="S7" s="51">
+      <c r="S7" s="43">
         <f>[2]EB1!S12</f>
         <v>-0.78449999999999998</v>
       </c>
-      <c r="T7" s="51">
+      <c r="T7" s="43">
         <f>[2]EB1!T12</f>
         <v>329.37150000000003</v>
       </c>
-      <c r="U7" s="51">
+      <c r="U7" s="43">
         <f>[2]EB1!U12</f>
         <v>0</v>
       </c>
-      <c r="V7" s="85">
+      <c r="V7" s="76">
         <f>[2]EB1!V12</f>
         <v>-26.820549999999912</v>
       </c>
-      <c r="X7" s="6"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B8" s="50" t="s">
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B8" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="43">
         <f>[2]EB1!D13</f>
         <v>0</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="43">
         <f>[2]EB1!E13</f>
         <v>0</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="43">
         <f>[2]EB1!F13</f>
         <v>-15868.2305</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="43">
         <f>[2]EB1!G13</f>
         <v>5701.34</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="43">
         <f>[2]EB1!H13</f>
         <v>969.47799999999995</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="43">
         <f>[2]EB1!I13</f>
         <v>1086.3040000000001</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="43">
         <f>[2]EB1!J13</f>
         <v>3354.9119999999998</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="43">
         <f>[2]EB1!K13</f>
         <v>970.28800000000001</v>
       </c>
-      <c r="L8" s="51">
+      <c r="L8" s="43">
         <f>[2]EB1!L13</f>
         <v>2285.1019999999999</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="43">
         <f>[2]EB1!M13</f>
         <v>1299.9449999999999</v>
       </c>
-      <c r="N8" s="51">
+      <c r="N8" s="43">
         <f>[2]EB1!N13</f>
         <v>0</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="43">
         <f>[2]EB1!O13</f>
         <v>0</v>
       </c>
-      <c r="P8" s="51">
+      <c r="P8" s="43">
         <f>[2]EB1!P13</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="43">
         <f>[2]EB1!Q13</f>
         <v>0</v>
       </c>
-      <c r="R8" s="51">
+      <c r="R8" s="43">
         <f>[2]EB1!R13</f>
         <v>0</v>
       </c>
-      <c r="S8" s="51">
+      <c r="S8" s="43">
         <f>[2]EB1!S13</f>
         <v>0</v>
       </c>
-      <c r="T8" s="51">
+      <c r="T8" s="43">
         <f>[2]EB1!T13</f>
         <v>0</v>
       </c>
-      <c r="U8" s="51">
+      <c r="U8" s="43">
         <f>[2]EB1!U13</f>
         <v>0</v>
       </c>
-      <c r="V8" s="85">
+      <c r="V8" s="76">
         <f>[2]EB1!V13</f>
         <v>-200.86150000000021</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
-      <c r="C9" s="55" t="s">
+    <row r="9" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+      <c r="C9" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="50">
         <f>SUM(D5:D8)</f>
         <v>-6381.1501000000017</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="48">
         <f t="shared" ref="E9:U9" si="0">SUM(E5:E8)</f>
         <v>-2691.93</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="48">
         <f t="shared" si="0"/>
         <v>-15868.2305</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="48">
         <f t="shared" si="0"/>
         <v>5647.2764999999999</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="48">
         <f t="shared" si="0"/>
         <v>969.45650000000001</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="48">
         <f t="shared" si="0"/>
         <v>533.47450000000003</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="48">
         <f t="shared" si="0"/>
         <v>3190.404</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="48">
         <f t="shared" si="0"/>
         <v>969.67200000000003</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L9" s="48">
         <f t="shared" si="0"/>
         <v>1539.2419999999997</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="48">
         <f t="shared" si="0"/>
         <v>1264.644</v>
       </c>
-      <c r="N9" s="56">
+      <c r="N9" s="48">
         <f t="shared" si="0"/>
         <v>-4455</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="48">
         <f t="shared" si="0"/>
         <v>-635.62668750000012</v>
       </c>
-      <c r="P9" s="56">
+      <c r="P9" s="48">
         <f t="shared" si="0"/>
         <v>-502.66000000000008</v>
       </c>
-      <c r="Q9" s="56">
+      <c r="Q9" s="48">
         <f t="shared" si="0"/>
         <v>-263.8965</v>
       </c>
-      <c r="R9" s="56">
+      <c r="R9" s="48">
         <f t="shared" si="0"/>
         <v>-68</v>
       </c>
-      <c r="S9" s="56">
+      <c r="S9" s="48">
         <f t="shared" si="0"/>
         <v>-18.019000000000002</v>
       </c>
-      <c r="T9" s="56">
+      <c r="T9" s="48">
         <f t="shared" si="0"/>
         <v>1198.1510000000001</v>
       </c>
-      <c r="U9" s="56">
+      <c r="U9" s="48">
         <f t="shared" si="0"/>
         <v>5790.5</v>
       </c>
-      <c r="V9" s="57">
+      <c r="V9" s="49">
         <f>SUM(V5:V8)</f>
         <v>-9781.6922875000037</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="D10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="C12" s="53" t="s">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="D10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+    </row>
+    <row r="12" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="C12" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="V13" s="8"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="V14" s="8"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="C15" s="64" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C15" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="V15" s="8"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="23" t="s">
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="V16" s="8"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="81">
         <v>1</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="91"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="82"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5054,7 +4999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5070,41 +5015,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E1" s="11"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
     </row>
     <row r="4" spans="2:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="121"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="103"/>
     </row>
     <row r="5" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5117,7 +5059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5147,346 +5089,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="39"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="2:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="str">
+      <c r="B2" s="10" t="str">
         <f>'EB1'!B6</f>
         <v>ELC</v>
       </c>
-      <c r="C2" s="22" t="str">
+      <c r="C2" s="18" t="str">
         <f>'EB1'!C6</f>
         <v>Electricity Plants</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="10" t="str">
         <f>'EB1'!Z2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="10" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="J2" s="106" t="s">
+      <c r="H2" s="9"/>
+      <c r="J2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="109" t="s">
+      <c r="K3" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="108" t="s">
+      <c r="Q3" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="108" t="s">
+      <c r="R3" s="94" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="J4" s="110" t="s">
+    <row r="4" spans="2:18" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="J4" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="110" t="s">
+      <c r="Q4" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="110" t="s">
+      <c r="R4" s="96" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="15"/>
-      <c r="J5" s="111" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="11"/>
+      <c r="J5" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111" t="str">
+      <c r="K5" s="97"/>
+      <c r="L5" s="97" t="str">
         <f>$B$2&amp;'EB1'!$D$2</f>
         <v>ELCCOA</v>
       </c>
-      <c r="M5" s="112" t="str">
+      <c r="M5" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$D$3</f>
         <v>Electricity Plants Solid Fuels</v>
       </c>
-      <c r="N5" s="111" t="str">
+      <c r="N5" s="97" t="str">
         <f t="shared" ref="N5:N12" si="0">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="15"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111" t="str">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="11"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97" t="str">
         <f>$B$2&amp;'EB1'!$E$2</f>
         <v>ELCGAS</v>
       </c>
-      <c r="M6" s="112" t="str">
+      <c r="M6" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$E$3</f>
         <v>Electricity Plants Natural Gas</v>
       </c>
-      <c r="N6" s="111" t="str">
+      <c r="N6" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="15"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111" t="str">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="11"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97" t="str">
         <f>$B$2&amp;'EB1'!$F$2</f>
         <v>ELCOIL</v>
       </c>
-      <c r="M7" s="112" t="str">
+      <c r="M7" s="98" t="str">
         <f>$C$2&amp;" "&amp;RIGHT('EB1'!$F$3,3)</f>
         <v>Electricity Plants oil</v>
       </c>
-      <c r="N7" s="111" t="str">
+      <c r="N7" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="15"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111" t="str">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="11"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97" t="str">
         <f>$B$2&amp;'EB1'!$N$2</f>
         <v>ELCNUC</v>
       </c>
-      <c r="M8" s="112" t="str">
+      <c r="M8" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$N$3</f>
         <v>Electricity Plants Nuclear Energy</v>
       </c>
-      <c r="N8" s="111" t="str">
+      <c r="N8" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="15"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111" t="str">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="11"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97" t="str">
         <f>$B$2&amp;'EB1'!$O$2</f>
         <v>ELCBIO</v>
       </c>
-      <c r="M9" s="112" t="str">
+      <c r="M9" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$O$3</f>
         <v>Electricity Plants Biomass</v>
       </c>
-      <c r="N9" s="111" t="str">
+      <c r="N9" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="15"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111" t="str">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="11"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97" t="str">
         <f>$B$2&amp;'EB1'!$P$2</f>
         <v>ELCHYD</v>
       </c>
-      <c r="M10" s="112" t="str">
+      <c r="M10" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$P$3</f>
         <v>Electricity Plants Hydro power</v>
       </c>
-      <c r="N10" s="111" t="str">
+      <c r="N10" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="15"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111" t="str">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="11"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97" t="str">
         <f>$B$2&amp;'EB1'!$Q$2</f>
         <v>ELCWIN</v>
       </c>
-      <c r="M11" s="112" t="str">
+      <c r="M11" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$Q$3</f>
         <v>Electricity Plants Wind energy</v>
       </c>
-      <c r="N11" s="111" t="str">
+      <c r="N11" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="15"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111" t="str">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="11"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97" t="str">
         <f>$B$2&amp;'EB1'!$R$2</f>
         <v>ELCSOL</v>
       </c>
-      <c r="M12" s="112" t="str">
+      <c r="M12" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$R$3</f>
         <v>Electricity Plants Solar energy</v>
       </c>
-      <c r="N12" s="111" t="str">
+      <c r="N12" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L13" s="27"/>
-      <c r="M13" s="29"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D14" s="4" t="s">
@@ -5494,147 +5412,147 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="J14" s="106" t="s">
+      <c r="J14" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="106"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="80" t="s">
+      <c r="G15" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="H15" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="108" t="s">
+      <c r="J15" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="109" t="s">
+      <c r="K15" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="108" t="s">
+      <c r="L15" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="108" t="s">
+      <c r="M15" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="108" t="s">
+      <c r="N15" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="108" t="s">
+      <c r="O15" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="108" t="s">
+      <c r="P15" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" s="108" t="s">
+      <c r="Q15" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="108" t="s">
+      <c r="R15" s="94" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="J16" s="110" t="s">
+      <c r="J16" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="110" t="s">
+      <c r="K16" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="110" t="s">
+      <c r="L16" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="110" t="s">
+      <c r="M16" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="110" t="s">
+      <c r="N16" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="110" t="s">
+      <c r="O16" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="110" t="s">
+      <c r="P16" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="Q16" s="110" t="s">
+      <c r="Q16" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="110" t="s">
+      <c r="R16" s="96" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="str">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="str">
         <f>F2&amp;"a"</f>
         <v>M€2005a</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17" t="s">
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="110" t="s">
+      <c r="J17" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="114"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="str">
+      <c r="B18" s="21" t="str">
         <f>Sector_Fuels_ELC!L18</f>
         <v>FTE-ELCCOA</v>
       </c>
@@ -5642,44 +5560,44 @@
         <f>RIGHT(D18,3)</f>
         <v>COA</v>
       </c>
-      <c r="D18" s="25" t="str">
+      <c r="D18" s="21" t="str">
         <f>L5</f>
         <v>ELCCOA</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="71">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="63">
         <v>1</v>
       </c>
-      <c r="H18" s="72">
+      <c r="H18" s="64">
         <v>30</v>
       </c>
-      <c r="J18" s="115" t="s">
+      <c r="J18" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="K18" s="116"/>
-      <c r="L18" s="111" t="str">
+      <c r="K18" s="100"/>
+      <c r="L18" s="97" t="str">
         <f t="shared" ref="L18:L25" si="1">"FT"&amp;$G$2&amp;"-"&amp;L5</f>
         <v>FTE-ELCCOA</v>
       </c>
-      <c r="M18" s="112" t="str">
+      <c r="M18" s="98" t="str">
         <f t="shared" ref="M18:M25" si="2">$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M5</f>
         <v>Sector Fuel Technology Existing Electricity Plants Solid Fuels</v>
       </c>
-      <c r="N18" s="111" t="str">
+      <c r="N18" s="97" t="str">
         <f t="shared" ref="N18:N25" si="3">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O18" s="111" t="str">
+      <c r="O18" s="97" t="str">
         <f t="shared" ref="O18:O25" si="4">$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="25" t="str">
+      <c r="B19" s="21" t="str">
         <f>Sector_Fuels_ELC!L19</f>
         <v>FTE-ELCGAS</v>
       </c>
@@ -5687,42 +5605,42 @@
         <f>RIGHT(D19,3)</f>
         <v>GAS</v>
       </c>
-      <c r="D19" s="25" t="str">
+      <c r="D19" s="21" t="str">
         <f>L6</f>
         <v>ELCGAS</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="71">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="63">
         <v>1</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="64">
         <v>30</v>
       </c>
-      <c r="J19" s="113"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="111" t="str">
+      <c r="J19" s="97"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCGAS</v>
       </c>
-      <c r="M19" s="112" t="str">
+      <c r="M19" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Natural Gas</v>
       </c>
-      <c r="N19" s="111" t="str">
+      <c r="N19" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O19" s="111" t="str">
+      <c r="O19" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="111"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="97"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="25" t="str">
+      <c r="B20" s="21" t="str">
         <f>Sector_Fuels_ELC!L20</f>
         <v>FTE-ELCOIL</v>
       </c>
@@ -5730,153 +5648,153 @@
         <f>'EB1'!G$2</f>
         <v>DSL</v>
       </c>
-      <c r="D20" s="25" t="str">
+      <c r="D20" s="21" t="str">
         <f>L7</f>
         <v>ELCOIL</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="62">
         <f>-'EB1'!G$6/-SUM('EB1'!$G$6:$M$6)</f>
         <v>4.9257354796510562E-2</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="71">
+      <c r="F20" s="12"/>
+      <c r="G20" s="63">
         <v>1</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="64">
         <v>30</v>
       </c>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="111" t="str">
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCOIL</v>
       </c>
-      <c r="M20" s="112" t="str">
+      <c r="M20" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants oil</v>
       </c>
-      <c r="N20" s="111" t="str">
+      <c r="N20" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O20" s="111" t="str">
+      <c r="O20" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="25"/>
+      <c r="B21" s="21"/>
       <c r="C21" t="str">
         <f>'EB1'!I$2</f>
         <v>LPG</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="70">
+      <c r="D21" s="21"/>
+      <c r="E21" s="62">
         <f>-'EB1'!I$6/-SUM('EB1'!$G$6:$M$6)</f>
         <v>3.8926710484734312E-2</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="111" t="str">
+      <c r="F21" s="12"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCNUC</v>
       </c>
-      <c r="M21" s="112" t="str">
+      <c r="M21" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Nuclear Energy</v>
       </c>
-      <c r="N21" s="111" t="str">
+      <c r="N21" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O21" s="111" t="str">
+      <c r="O21" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="117"/>
-      <c r="R21" s="111"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="25"/>
+      <c r="B22" s="21"/>
       <c r="C22" t="str">
         <f>'EB1'!L$2</f>
         <v>HFO</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="70">
+      <c r="D22" s="21"/>
+      <c r="E22" s="62">
         <f>-'EB1'!L$6/-SUM('EB1'!$G$6:$M$6)</f>
         <v>0.85705723214511731</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111" t="str">
+      <c r="F22" s="12"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCBIO</v>
       </c>
-      <c r="M22" s="112" t="str">
+      <c r="M22" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Biomass</v>
       </c>
-      <c r="N22" s="111" t="str">
+      <c r="N22" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O22" s="111" t="str">
+      <c r="O22" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="111"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="25"/>
+      <c r="B23" s="21"/>
       <c r="C23" t="str">
         <f>'EB1'!M$2</f>
         <v>OPP</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="70">
+      <c r="D23" s="21"/>
+      <c r="E23" s="62">
         <f>-'EB1'!M$6/-SUM('EB1'!$G$6:$M$6)</f>
         <v>5.4758702573637796E-2</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="111" t="str">
+      <c r="F23" s="12"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCHYD</v>
       </c>
-      <c r="M23" s="112" t="str">
+      <c r="M23" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Hydro power</v>
       </c>
-      <c r="N23" s="111" t="str">
+      <c r="N23" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O23" s="111" t="str">
+      <c r="O23" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="28" t="str">
+      <c r="B24" s="21" t="str">
         <f>Sector_Fuels_ELC!L21</f>
         <v>FTE-ELCNUC</v>
       </c>
@@ -5884,42 +5802,42 @@
         <f>RIGHT(D24,3)</f>
         <v>NUC</v>
       </c>
-      <c r="D24" s="25" t="str">
+      <c r="D24" s="21" t="str">
         <f>L8</f>
         <v>ELCNUC</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="71">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="63">
         <v>1</v>
       </c>
-      <c r="H24" s="72">
+      <c r="H24" s="64">
         <v>30</v>
       </c>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="111" t="str">
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCWIN</v>
       </c>
-      <c r="M24" s="112" t="str">
+      <c r="M24" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Wind energy</v>
       </c>
-      <c r="N24" s="111" t="str">
+      <c r="N24" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O24" s="111" t="str">
+      <c r="O24" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="28" t="str">
+      <c r="B25" s="21" t="str">
         <f>Sector_Fuels_ELC!L22</f>
         <v>FTE-ELCBIO</v>
       </c>
@@ -5927,42 +5845,42 @@
         <f>RIGHT(D25,3)</f>
         <v>BIO</v>
       </c>
-      <c r="D25" s="25" t="str">
+      <c r="D25" s="21" t="str">
         <f>L9</f>
         <v>ELCBIO</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="71">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="63">
         <v>1</v>
       </c>
-      <c r="H25" s="72">
+      <c r="H25" s="64">
         <v>30</v>
       </c>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="111" t="str">
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCSOL</v>
       </c>
-      <c r="M25" s="112" t="str">
+      <c r="M25" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Solar energy</v>
       </c>
-      <c r="N25" s="111" t="str">
+      <c r="N25" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O25" s="111" t="str">
+      <c r="O25" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="28" t="str">
+      <c r="B26" s="21" t="str">
         <f>Sector_Fuels_ELC!L23</f>
         <v>FTE-ELCHYD</v>
       </c>
@@ -5970,21 +5888,21 @@
         <f>RIGHT(D26,3)</f>
         <v>HYD</v>
       </c>
-      <c r="D26" s="25" t="str">
+      <c r="D26" s="21" t="str">
         <f>L10</f>
         <v>ELCHYD</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="71">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="63">
         <v>1</v>
       </c>
-      <c r="H26" s="72">
+      <c r="H26" s="64">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="28" t="str">
+      <c r="B27" s="21" t="str">
         <f>Sector_Fuels_ELC!L24</f>
         <v>FTE-ELCWIN</v>
       </c>
@@ -5992,21 +5910,21 @@
         <f>RIGHT(D27,3)</f>
         <v>WIN</v>
       </c>
-      <c r="D27" s="25" t="str">
+      <c r="D27" s="21" t="str">
         <f>L11</f>
         <v>ELCWIN</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="71">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="63">
         <v>1</v>
       </c>
-      <c r="H27" s="72">
+      <c r="H27" s="64">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="28" t="str">
+      <c r="B28" s="21" t="str">
         <f>Sector_Fuels_ELC!L25</f>
         <v>FTE-ELCSOL</v>
       </c>
@@ -6014,27 +5932,27 @@
         <f>RIGHT(D28,3)</f>
         <v>SOL</v>
       </c>
-      <c r="D28" s="25" t="str">
+      <c r="D28" s="21" t="str">
         <f>L12</f>
         <v>ELCSOL</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="71">
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="63">
         <v>1</v>
       </c>
-      <c r="H28" s="72">
+      <c r="H28" s="64">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="52"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="68"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="1" t="s">
         <v>145</v>
       </c>
@@ -6048,31 +5966,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AB65536"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -6082,211 +6000,209 @@
     <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="25"/>
+    <col min="29" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="2:28" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="str">
+      <c r="B2" s="10" t="str">
         <f>'EB1'!B6</f>
         <v>ELC</v>
       </c>
-      <c r="C2" s="22" t="str">
+      <c r="C2" s="18" t="str">
         <f>'EB1'!C6</f>
         <v>Electricity Plants</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="10" t="str">
         <f>'EB1'!Z2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="14" t="str">
+      <c r="G2" s="10" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="106" t="s">
+      <c r="T2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="106"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="T3" s="108" t="s">
+      <c r="T3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="109" t="s">
+      <c r="U3" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="108" t="s">
+      <c r="V3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="108" t="s">
+      <c r="W3" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="108" t="s">
+      <c r="X3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="108" t="s">
+      <c r="Y3" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" s="108" t="s">
+      <c r="Z3" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="AA3" s="108" t="s">
+      <c r="AA3" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="108" t="s">
+      <c r="AB3" s="94" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:28" s="26" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="2:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="110" t="s">
+      <c r="H4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="T4" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="110" t="s">
+      <c r="U4" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="110" t="s">
+      <c r="V4" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="110" t="s">
+      <c r="W4" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="110" t="s">
+      <c r="X4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="110" t="s">
+      <c r="Y4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="Z4" s="110" t="s">
+      <c r="Z4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="110" t="s">
+      <c r="AA4" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="AB4" s="110" t="s">
+      <c r="AB4" s="96" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:28" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+    <row r="5" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="115" t="s">
+      <c r="H5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="T5" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="U5" s="111"/>
-      <c r="V5" s="115" t="str">
+      <c r="U5" s="97"/>
+      <c r="V5" s="93" t="str">
         <f>'EB1'!$U$2</f>
         <v>ELC</v>
       </c>
-      <c r="W5" s="115" t="str">
+      <c r="W5" s="93" t="str">
         <f>'EB1'!$U$3</f>
         <v>Electricity</v>
       </c>
-      <c r="X5" s="115" t="str">
+      <c r="X5" s="93" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115" t="s">
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115" t="s">
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="T6" s="113" t="s">
+      <c r="T6" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="U6" s="113"/>
-      <c r="V6" s="113" t="str">
+      <c r="U6" s="97"/>
+      <c r="V6" s="97" t="str">
         <f>$B$2&amp;'EB1'!$C$15</f>
         <v>ELCCO2</v>
       </c>
-      <c r="W6" s="113" t="str">
+      <c r="W6" s="97" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$C$16</f>
         <v>Electricity Plants Carbon dioxide</v>
       </c>
-      <c r="X6" s="113" t="str">
+      <c r="X6" s="97" t="str">
         <f>'EB1'!$AA$2</f>
         <v>kt</v>
       </c>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="113"/>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="97"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.2">
       <c r="T7" s="2"/>
@@ -6304,823 +6220,809 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="3"/>
-      <c r="Q8" s="26"/>
-      <c r="T8" s="106" t="s">
+      <c r="T8" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="106"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
     </row>
     <row r="9" spans="2:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="80" t="s">
+      <c r="J9" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="K9" s="80" t="s">
+      <c r="K9" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="80" t="s">
+      <c r="M9" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="N9" s="80" t="s">
+      <c r="N9" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="80" t="s">
+      <c r="O9" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="P9" s="80" t="s">
+      <c r="P9" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="101" t="s">
+      <c r="Q9" s="23"/>
+      <c r="R9" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="108" t="s">
+      <c r="S9" s="27"/>
+      <c r="T9" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="U9" s="109" t="s">
+      <c r="U9" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="V9" s="108" t="s">
+      <c r="V9" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="W9" s="108" t="s">
+      <c r="W9" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="X9" s="108" t="s">
+      <c r="X9" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="Y9" s="108" t="s">
+      <c r="Y9" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="108" t="s">
+      <c r="Z9" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="108" t="s">
+      <c r="AA9" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="AB9" s="108" t="s">
+      <c r="AB9" s="94" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="86" t="s">
+      <c r="J10" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="P10" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="S10" s="36"/>
-      <c r="T10" s="110" t="s">
+      <c r="S10" s="28"/>
+      <c r="T10" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="110" t="s">
+      <c r="U10" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="V10" s="110" t="s">
+      <c r="V10" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="110" t="s">
+      <c r="W10" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="X10" s="110" t="s">
+      <c r="X10" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="Y10" s="110" t="s">
+      <c r="Y10" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="Z10" s="110" t="s">
+      <c r="Z10" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="AA10" s="110" t="s">
+      <c r="AA10" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="AB10" s="110" t="s">
+      <c r="AB10" s="96" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="105" t="str">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="str">
         <f>$F$2</f>
         <v>GW</v>
       </c>
-      <c r="F11" s="105" t="str">
+      <c r="F11" s="13" t="str">
         <f>$F$2</f>
         <v>GW</v>
       </c>
-      <c r="G11" s="17" t="str">
+      <c r="G11" s="13" t="str">
         <f>$F$2</f>
         <v>GW</v>
       </c>
-      <c r="H11" s="81" t="str">
+      <c r="H11" s="72" t="str">
         <f>$F$2</f>
         <v>GW</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="17" t="str">
+      <c r="I11" s="13"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="13" t="str">
         <f>$G$2&amp;"/"&amp;$F$2</f>
         <v>M€2005/GW</v>
       </c>
-      <c r="L11" s="17" t="str">
+      <c r="L11" s="13" t="str">
         <f>$G$2&amp;"/"&amp;$F$2</f>
         <v>M€2005/GW</v>
       </c>
-      <c r="M11" s="17" t="str">
+      <c r="M11" s="13" t="str">
         <f>$G$2&amp;"/"&amp;$E$2</f>
         <v>M€2005/PJ</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O11" s="17" t="str">
+      <c r="O11" s="13" t="str">
         <f>$E$2&amp;"/"&amp;$F$2</f>
         <v>PJ/GW</v>
       </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="102" t="s">
+      <c r="P11" s="13"/>
+      <c r="R11" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="S11" s="36"/>
-      <c r="T11" s="110" t="s">
+      <c r="S11" s="28"/>
+      <c r="T11" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="96"/>
+      <c r="AB11" s="96"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B12" s="25" t="str">
+      <c r="B12" s="21" t="str">
         <f t="shared" ref="B12:B19" si="0">V12</f>
         <v>ELCTECOA00</v>
       </c>
-      <c r="C12" s="25" t="str">
+      <c r="C12" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L5,3)</f>
         <v>ELCCOA</v>
       </c>
-      <c r="D12" s="25" t="str">
+      <c r="D12" s="21" t="str">
         <f t="shared" ref="D12:D19" si="1">$V$5</f>
         <v>ELC</v>
       </c>
-      <c r="G12" s="98">
+      <c r="G12" s="86">
         <f>(-'EB1'!$D$6*$I$12)/($J$12*$O$12)</f>
         <v>89.372771062763022</v>
       </c>
-      <c r="H12" s="69"/>
-      <c r="I12" s="76">
+      <c r="H12" s="61"/>
+      <c r="I12" s="67">
         <v>0.38400000000000001</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J12" s="67">
         <v>0.85</v>
       </c>
-      <c r="K12" s="75"/>
-      <c r="L12" s="76">
+      <c r="K12" s="66"/>
+      <c r="L12" s="67">
         <v>40</v>
       </c>
-      <c r="M12" s="76">
+      <c r="M12" s="67">
         <v>0.5</v>
       </c>
-      <c r="N12" s="75">
+      <c r="N12" s="66">
         <v>30</v>
       </c>
-      <c r="O12" s="75">
+      <c r="O12" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="P12" s="76">
+      <c r="P12" s="67">
         <v>1</v>
       </c>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="34">
+      <c r="R12" s="26">
         <f t="shared" ref="R12:R19" si="2">G12*$J12*$O12</f>
         <v>2395.6907520000004</v>
       </c>
-      <c r="S12" s="100"/>
-      <c r="T12" s="111" t="s">
+      <c r="S12" s="87"/>
+      <c r="T12" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="U12" s="111"/>
-      <c r="V12" s="111" t="str">
+      <c r="U12" s="97"/>
+      <c r="V12" s="97" t="str">
         <f>$B$2&amp;$C$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$5,3)&amp;"00"</f>
         <v>ELCTECOA00</v>
       </c>
-      <c r="W12" s="112" t="str">
+      <c r="W12" s="98" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(V12,2)&amp;" - "&amp;'EB1'!D3</f>
         <v>Power Plants Existing00 - Solid Fuels</v>
       </c>
-      <c r="X12" s="111" t="str">
+      <c r="X12" s="97" t="str">
         <f t="shared" ref="X12:X19" si="3">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="Y12" s="111" t="str">
+      <c r="Y12" s="97" t="str">
         <f t="shared" ref="Y12:Y19" si="4">$F$2</f>
         <v>GW</v>
       </c>
-      <c r="Z12" s="115" t="s">
+      <c r="Z12" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="AA12" s="111"/>
-      <c r="AB12" s="111"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="97"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B13" s="25" t="str">
+      <c r="B13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCTEGAS00</v>
       </c>
-      <c r="C13" s="25" t="str">
+      <c r="C13" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L6,3)</f>
         <v>ELCGAS</v>
       </c>
-      <c r="D13" s="25" t="str">
+      <c r="D13" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="G13" s="98">
+      <c r="G13" s="86">
         <f>(-'EB1'!$E$6*$I$13)/($J$13*$O$13)</f>
         <v>41.450437783149788</v>
       </c>
-      <c r="H13" s="69"/>
-      <c r="I13" s="94">
+      <c r="H13" s="61"/>
+      <c r="I13" s="67">
         <v>0.4929</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="67">
         <v>0.85</v>
       </c>
-      <c r="K13" s="75"/>
-      <c r="L13" s="76">
+      <c r="K13" s="66"/>
+      <c r="L13" s="67">
         <v>35</v>
       </c>
-      <c r="M13" s="76">
+      <c r="M13" s="67">
         <v>0.4</v>
       </c>
-      <c r="N13" s="75">
+      <c r="N13" s="66">
         <v>20</v>
       </c>
-      <c r="O13" s="75">
+      <c r="O13" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="P13" s="76">
+      <c r="P13" s="67">
         <v>1</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="34">
+      <c r="R13" s="26">
         <f t="shared" si="2"/>
         <v>1111.1038550399999</v>
       </c>
-      <c r="S13" s="37"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111" t="str">
+      <c r="S13" s="29"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97" t="str">
         <f>$B$2&amp;$C$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$6,3)&amp;"00"</f>
         <v>ELCTEGAS00</v>
       </c>
-      <c r="W13" s="112" t="str">
+      <c r="W13" s="98" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(V13,2)&amp;" - "&amp;'EB1'!E3</f>
         <v>Power Plants Existing00 - Natural Gas</v>
       </c>
-      <c r="X13" s="111" t="str">
+      <c r="X13" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="Y13" s="111" t="str">
+      <c r="Y13" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="111"/>
-      <c r="AB13" s="111"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="97"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="str">
+      <c r="B14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCTEOIL00</v>
       </c>
-      <c r="C14" s="25" t="str">
+      <c r="C14" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L7,3)</f>
         <v>ELCOIL</v>
       </c>
-      <c r="D14" s="25" t="str">
+      <c r="D14" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="G14" s="98">
+      <c r="G14" s="86">
         <f>((-SUM('EB1'!G6:M6)*$I$14)/($J$14*$O$14))</f>
         <v>5.710602448742053</v>
       </c>
-      <c r="H14" s="69"/>
-      <c r="I14" s="94">
+      <c r="H14" s="61"/>
+      <c r="I14" s="67">
         <v>0.25</v>
       </c>
-      <c r="J14" s="94">
+      <c r="J14" s="67">
         <v>0.85</v>
       </c>
-      <c r="K14" s="93"/>
-      <c r="L14" s="94">
+      <c r="K14" s="66"/>
+      <c r="L14" s="67">
         <v>20</v>
       </c>
-      <c r="M14" s="94">
+      <c r="M14" s="67">
         <v>0.2</v>
       </c>
-      <c r="N14" s="93">
+      <c r="N14" s="66">
         <v>30</v>
       </c>
-      <c r="O14" s="75">
+      <c r="O14" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="P14" s="76">
+      <c r="P14" s="67">
         <v>1</v>
       </c>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="34">
+      <c r="R14" s="26">
         <f t="shared" si="2"/>
         <v>153.07612499999996</v>
       </c>
-      <c r="S14" s="37"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="111" t="str">
+      <c r="S14" s="29"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="97" t="str">
         <f>$B$2&amp;$C$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$7,3)&amp;"00"</f>
         <v>ELCTEOIL00</v>
       </c>
-      <c r="W14" s="112" t="str">
+      <c r="W14" s="98" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(V14,2)&amp;" - "&amp;'EB1'!F3</f>
         <v>Power Plants Existing00 - Crude oil</v>
       </c>
-      <c r="X14" s="111" t="str">
+      <c r="X14" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="Y14" s="111" t="str">
+      <c r="Y14" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="Z14" s="111"/>
-      <c r="AA14" s="111"/>
-      <c r="AB14" s="111"/>
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="97"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="str">
+      <c r="B15" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCNENUC00</v>
       </c>
-      <c r="C15" s="25" t="str">
+      <c r="C15" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L8,3)</f>
         <v>ELCNUC</v>
       </c>
-      <c r="D15" s="28" t="str">
+      <c r="D15" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="99">
+      <c r="G15" s="86">
         <f>(-'EB1'!$N$6*$I$15)/($J$15*$O$15)</f>
         <v>51.797945205479458</v>
       </c>
-      <c r="H15" s="99">
+      <c r="H15" s="86">
         <f>G15</f>
         <v>51.797945205479458</v>
       </c>
-      <c r="I15" s="93">
+      <c r="I15" s="66">
         <v>0.33</v>
       </c>
-      <c r="J15" s="94">
+      <c r="J15" s="67">
         <v>0.9</v>
       </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="94">
+      <c r="K15" s="66"/>
+      <c r="L15" s="67">
         <v>38</v>
       </c>
-      <c r="M15" s="93">
+      <c r="M15" s="66">
         <v>0.27</v>
       </c>
-      <c r="N15" s="74"/>
-      <c r="O15" s="93">
+      <c r="N15" s="43"/>
+      <c r="O15" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="P15" s="94">
+      <c r="P15" s="67">
         <v>1</v>
       </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="34">
+      <c r="R15" s="26">
         <f t="shared" si="2"/>
         <v>1470.1500000000003</v>
       </c>
-      <c r="S15" s="37"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="111" t="str">
+      <c r="S15" s="29"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="97" t="str">
         <f>$B$2&amp;$F$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$8,3)&amp;"00"</f>
         <v>ELCNENUC00</v>
       </c>
-      <c r="W15" s="118" t="str">
+      <c r="W15" s="97" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(V15,2)&amp;" - "&amp;'EB1'!N3</f>
         <v>Power Plants Existing00 - Nuclear Energy</v>
       </c>
-      <c r="X15" s="111" t="str">
+      <c r="X15" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="Y15" s="111" t="str">
+      <c r="Y15" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="Z15" s="115" t="s">
+      <c r="Z15" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="AA15" s="111"/>
-      <c r="AB15" s="111"/>
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="97"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="28" t="str">
+      <c r="B16" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCREBIO00</v>
       </c>
-      <c r="C16" s="25" t="str">
+      <c r="C16" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L9,3)</f>
         <v>ELCBIO</v>
       </c>
-      <c r="D16" s="28" t="str">
+      <c r="D16" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="99">
+      <c r="G16" s="86">
         <f>(-'EB1'!$O$6*$I$16)/($J$16*$O$16)</f>
         <v>7.8023302733384083</v>
       </c>
-      <c r="H16" s="92"/>
-      <c r="I16" s="73">
+      <c r="H16" s="61"/>
+      <c r="I16" s="65">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J16" s="73">
+      <c r="J16" s="65">
         <v>0.6</v>
       </c>
-      <c r="K16" s="73"/>
-      <c r="L16" s="74">
+      <c r="K16" s="65"/>
+      <c r="L16" s="43">
         <v>25</v>
       </c>
-      <c r="M16" s="73">
+      <c r="M16" s="65">
         <v>0.35</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N16" s="43">
         <v>25</v>
       </c>
-      <c r="O16" s="93">
+      <c r="O16" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="P16" s="94">
+      <c r="P16" s="67">
         <v>1</v>
       </c>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="34">
+      <c r="R16" s="26">
         <f t="shared" si="2"/>
         <v>147.63257250000001</v>
       </c>
-      <c r="S16" s="37"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111" t="str">
+      <c r="S16" s="29"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97" t="str">
         <f>$B$2&amp;$E$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$9,3)&amp;"00"</f>
         <v>ELCREBIO00</v>
       </c>
-      <c r="W16" s="118" t="str">
+      <c r="W16" s="97" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(V16,2)&amp;" - "&amp;'EB1'!O3</f>
         <v>Power Plants Existing00 - Biomass</v>
       </c>
-      <c r="X16" s="111" t="str">
+      <c r="X16" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="Y16" s="111" t="str">
+      <c r="Y16" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="Z16" s="115"/>
-      <c r="AA16" s="111"/>
-      <c r="AB16" s="111"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="97"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B17" s="28" t="str">
+      <c r="B17" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCREHYD00</v>
       </c>
-      <c r="C17" s="25" t="str">
+      <c r="C17" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L10,3)</f>
         <v>ELCHYD</v>
       </c>
-      <c r="D17" s="28" t="str">
+      <c r="D17" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E17" s="74">
+      <c r="E17" s="43">
         <v>15</v>
       </c>
-      <c r="F17" s="74">
+      <c r="F17" s="43">
         <v>16</v>
       </c>
-      <c r="G17" s="103"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="73">
+      <c r="G17" s="90"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="65">
         <v>1</v>
       </c>
-      <c r="J17" s="73">
+      <c r="J17" s="65">
         <v>0.5</v>
       </c>
-      <c r="K17" s="73"/>
-      <c r="L17" s="74">
+      <c r="K17" s="65"/>
+      <c r="L17" s="43">
         <v>50</v>
       </c>
-      <c r="M17" s="73">
+      <c r="M17" s="65">
         <v>2</v>
       </c>
-      <c r="N17" s="74">
+      <c r="N17" s="43">
         <v>50</v>
       </c>
-      <c r="O17" s="93">
+      <c r="O17" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="P17" s="94">
+      <c r="P17" s="67">
         <v>0.5</v>
       </c>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="34">
+      <c r="R17" s="26">
         <f>(E17+F17)*$J17*$O17</f>
         <v>488.80799999999999</v>
       </c>
-      <c r="S17" s="37"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="111" t="str">
+      <c r="S17" s="29"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="97" t="str">
         <f>$B$2&amp;$E$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$10,3)&amp;"00"</f>
         <v>ELCREHYD00</v>
       </c>
-      <c r="W17" s="118" t="str">
+      <c r="W17" s="97" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(V17,2)&amp;" - "&amp;'EB1'!P3</f>
         <v>Power Plants Existing00 - Hydro power</v>
       </c>
-      <c r="X17" s="111" t="str">
+      <c r="X17" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="Y17" s="111" t="str">
+      <c r="Y17" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="Z17" s="111"/>
-      <c r="AA17" s="111"/>
-      <c r="AB17" s="111"/>
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="97"/>
+      <c r="AB17" s="97"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B18" s="28" t="str">
+      <c r="B18" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCREWIN00</v>
       </c>
-      <c r="C18" s="25" t="str">
+      <c r="C18" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L11,3)</f>
         <v>ELCWIN</v>
       </c>
-      <c r="D18" s="28" t="str">
+      <c r="D18" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="99">
+      <c r="G18" s="86">
         <f>(-'EB1'!$Q$6*$I$18)/($J$18*$O$18)</f>
         <v>23.908866057838662</v>
       </c>
-      <c r="H18" s="92"/>
-      <c r="I18" s="73">
+      <c r="H18" s="61"/>
+      <c r="I18" s="65">
         <v>1</v>
       </c>
-      <c r="J18" s="73">
+      <c r="J18" s="65">
         <v>0.35</v>
       </c>
-      <c r="K18" s="73"/>
-      <c r="L18" s="74">
+      <c r="K18" s="65"/>
+      <c r="L18" s="43">
         <v>35</v>
       </c>
-      <c r="M18" s="73">
+      <c r="M18" s="65">
         <v>0.5</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="43">
         <v>20</v>
       </c>
-      <c r="O18" s="93">
+      <c r="O18" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="P18" s="94">
+      <c r="P18" s="67">
         <v>0.3</v>
       </c>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="34">
+      <c r="R18" s="26">
         <f t="shared" si="2"/>
         <v>263.8965</v>
       </c>
-      <c r="S18" s="37"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="111" t="str">
+      <c r="S18" s="29"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="97"/>
+      <c r="V18" s="97" t="str">
         <f>$B$2&amp;$E$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$11,3)&amp;"00"</f>
         <v>ELCREWIN00</v>
       </c>
-      <c r="W18" s="118" t="str">
+      <c r="W18" s="97" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(V18,2)&amp;" - "&amp;'EB1'!Q3</f>
         <v>Power Plants Existing00 - Wind energy</v>
       </c>
-      <c r="X18" s="111" t="str">
+      <c r="X18" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="Y18" s="111" t="str">
+      <c r="Y18" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="Z18" s="111"/>
-      <c r="AA18" s="111"/>
-      <c r="AB18" s="111"/>
+      <c r="Z18" s="97"/>
+      <c r="AA18" s="97"/>
+      <c r="AB18" s="97"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B19" s="28" t="str">
+      <c r="B19" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCRESOL00</v>
       </c>
-      <c r="C19" s="25" t="str">
+      <c r="C19" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L12,3)</f>
         <v>ELCSOL</v>
       </c>
-      <c r="D19" s="28" t="str">
+      <c r="D19" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="99">
+      <c r="G19" s="86">
         <f>(-'EB1'!$R$6*$I$19)/($J$19*$O$19)</f>
         <v>7.1875528496533061</v>
       </c>
-      <c r="H19" s="92"/>
-      <c r="I19" s="73">
+      <c r="H19" s="61"/>
+      <c r="I19" s="65">
         <v>1</v>
       </c>
-      <c r="J19" s="73">
+      <c r="J19" s="65">
         <v>0.3</v>
       </c>
-      <c r="K19" s="73"/>
-      <c r="L19" s="74">
+      <c r="K19" s="65"/>
+      <c r="L19" s="43">
         <v>60</v>
       </c>
-      <c r="M19" s="73"/>
-      <c r="N19" s="74">
+      <c r="M19" s="65"/>
+      <c r="N19" s="43">
         <v>15</v>
       </c>
-      <c r="O19" s="93">
+      <c r="O19" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="P19" s="94">
+      <c r="P19" s="67">
         <v>0.2</v>
       </c>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="34">
+      <c r="R19" s="26">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="S19" s="37"/>
-      <c r="T19" s="111"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="111" t="str">
+      <c r="S19" s="29"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="97"/>
+      <c r="V19" s="97" t="str">
         <f>$B$2&amp;$E$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$12,3)&amp;"00"</f>
         <v>ELCRESOL00</v>
       </c>
-      <c r="W19" s="118" t="str">
+      <c r="W19" s="97" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(V19,2)&amp;" - "&amp;'EB1'!R3</f>
         <v>Power Plants Existing00 - Solar energy</v>
       </c>
-      <c r="X19" s="111" t="str">
+      <c r="X19" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="Y19" s="111" t="str">
+      <c r="Y19" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="Z19" s="111"/>
-      <c r="AA19" s="111"/>
-      <c r="AB19" s="111"/>
+      <c r="Z19" s="97"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="97"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="R21" s="97"/>
+      <c r="R21" s="85"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="R22" s="97"/>
+      <c r="R22" s="85"/>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B23" s="52"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R23" s="97"/>
+        <v>168</v>
+      </c>
+      <c r="R23" s="85"/>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B24" s="68"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="R24" s="97"/>
+      <c r="R24" s="85"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="R25" s="97"/>
+      <c r="R25" s="85"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C27" s="21" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="65536" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S65536" s="37"/>
+      <c r="S65536" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7131,7 +7033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7144,105 +7046,95 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-    </row>
-    <row r="4" spans="2:10" s="6" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="C5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="45" t="str">
+      <c r="C6" s="37" t="str">
         <f>Sector_Fuels_ELC!$L$5</f>
         <v>ELCCOA</v>
       </c>
-      <c r="D6" s="45" t="str">
+      <c r="D6" s="37" t="str">
         <f>Sector_Fuels_ELC!$L$6</f>
         <v>ELCGAS</v>
       </c>
-      <c r="E6" s="45" t="str">
+      <c r="E6" s="37" t="str">
         <f>Sector_Fuels_ELC!$L$7</f>
         <v>ELCOIL</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="25" t="str">
+      <c r="B8" s="21" t="str">
         <f>Con_ELC!$V$6</f>
         <v>ELCCO2</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="65">
         <v>95</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="65">
         <v>56.1</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="65">
         <v>76.400000000000006</v>
       </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-    </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="52"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="68"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="1" t="s">
         <v>145</v>
       </c>

--- a/VT_REG1_ELC_V12.xlsx
+++ b/VT_REG1_ELC_V12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA2p0\Veda\Veda_models\TEST-VedaOnline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483BBB0E-BC70-4B7E-A2AE-B3A1F11F22D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D441EAE0-9591-4C43-B2D1-A639450E845E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1514,7 +1514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="169">
   <si>
     <t>CommName</t>
   </si>
@@ -2021,9 +2021,6 @@
   </si>
   <si>
     <t>User input</t>
-  </si>
-  <si>
-    <t>ciao</t>
   </si>
 </sst>
 </file>
@@ -5970,7 +5967,7 @@
   <dimension ref="B1:AB65536"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7016,11 +7013,6 @@
     <row r="25" spans="2:28" x14ac:dyDescent="0.2">
       <c r="R25" s="85"/>
     </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C27" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
     <row r="65536" spans="19:19" x14ac:dyDescent="0.2">
       <c r="S65536" s="29"/>
     </row>

--- a/VT_REG1_ELC_V12.xlsx
+++ b/VT_REG1_ELC_V12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Training material\DemoS_012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA2p0\Veda\Veda_models\TEST-VedaOnline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F285464-C26D-4EE5-8AAA-6C1B248B09E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17B1965-596F-475A-89CE-5ECFC23D547D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" tabRatio="901" activeTab="3"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EB1" sheetId="133" r:id="rId1"/>
@@ -26,12 +26,17 @@
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,14 +44,14 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -160,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1" shapeId="0">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -259,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -345,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P15" authorId="2" shapeId="0">
+    <comment ref="P15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -438,7 +443,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="1" shapeId="0">
+    <comment ref="Q15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -463,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R15" authorId="2" shapeId="0">
+    <comment ref="R15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -526,7 +531,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J16" authorId="2" shapeId="0">
+    <comment ref="J16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -774,14 +779,14 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
     <author>Amit Kanudia</author>
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="T3" authorId="0" shapeId="0">
+    <comment ref="T3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -895,7 +900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y3" authorId="1" shapeId="0">
+    <comment ref="Y3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -921,7 +926,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z3" authorId="2" shapeId="0">
+    <comment ref="Z3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -994,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA3" authorId="2" shapeId="0">
+    <comment ref="AA3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1047,7 +1052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB3" authorId="2" shapeId="0">
+    <comment ref="AB3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1080,7 +1085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z9" authorId="2" shapeId="0">
+    <comment ref="Z9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1173,7 +1178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA9" authorId="1" shapeId="0">
+    <comment ref="AA9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1198,7 +1203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB9" authorId="2" shapeId="0">
+    <comment ref="AB9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1261,7 +1266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T10" authorId="2" shapeId="0">
+    <comment ref="T10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1509,7 +1514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="169">
   <si>
     <t>CommName</t>
   </si>
@@ -2013,21 +2018,24 @@
   </si>
   <si>
     <t>AFA</t>
+  </si>
+  <si>
+    <t>User inputss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="0.000"/>
-    <numFmt numFmtId="187" formatCode="General_)"/>
-    <numFmt numFmtId="188" formatCode="0.0"/>
-    <numFmt numFmtId="190" formatCode="0.0000"/>
-    <numFmt numFmtId="195" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2057,32 +2065,6 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
@@ -2578,67 +2560,63 @@
   </borders>
   <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2647,87 +2625,83 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="12" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="22" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="22" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="187" fontId="20" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="18" fillId="9" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="18" fillId="9" borderId="5" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="16" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="18" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="7" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="14" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2736,113 +2710,101 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="188" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="16" borderId="0" xfId="16" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="8" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="13" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="14" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="25" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="195" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="25" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2851,32 +2813,32 @@
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
     <cellStyle name="Accent2" xfId="3" builtinId="33"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="9"/>
-    <cellStyle name="Normal 2" xfId="10"/>
-    <cellStyle name="Normal 4" xfId="11"/>
-    <cellStyle name="Normal 4 2" xfId="12"/>
-    <cellStyle name="Normal 8" xfId="13"/>
-    <cellStyle name="Normal 9 2" xfId="14"/>
-    <cellStyle name="Normale_B2020" xfId="15"/>
+    <cellStyle name="Normal 10" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 8" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Normal 9 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Normale_B2020" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Percent" xfId="16" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="17"/>
-    <cellStyle name="Percent 3" xfId="18"/>
-    <cellStyle name="Percent 3 2" xfId="19"/>
-    <cellStyle name="Percent 3 3" xfId="20"/>
-    <cellStyle name="Percent 3 4" xfId="21"/>
-    <cellStyle name="Percent 4" xfId="22"/>
-    <cellStyle name="Percent 4 2" xfId="23"/>
-    <cellStyle name="Percent 4 3" xfId="24"/>
-    <cellStyle name="Percent 4 4" xfId="25"/>
-    <cellStyle name="Percent 5" xfId="26"/>
-    <cellStyle name="Percent 6" xfId="27"/>
-    <cellStyle name="Percent 7" xfId="28"/>
-    <cellStyle name="Standard_Sce_D_Extraction" xfId="29"/>
+    <cellStyle name="Percent 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Percent 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Percent 3 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Percent 3 3" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Percent 3 4" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Percent 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Percent 4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Percent 4 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Percent 4 4" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Percent 5" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Percent 6" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Percent 7" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Standard_Sce_D_Extraction" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3598,7 +3560,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -3733,7 +3695,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="EnergyBalance"/>
@@ -4335,11 +4297,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AA17"/>
+  <dimension ref="B1:AA17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="U7" sqref="U7"/>
@@ -4362,8 +4324,8 @@
     <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="X1" s="23" t="s">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="X1" s="19" t="s">
         <v>78</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -4376,676 +4338,656 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="7"/>
-      <c r="D2" s="48" t="s">
+    <row r="2" spans="2:27" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="U2" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="V2" s="48" t="s">
+      <c r="V2" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="47" t="s">
+      <c r="Y2" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="Z2" s="14" t="s">
+      <c r="Z2" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AA2" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C3" s="67" t="s">
+    <row r="3" spans="2:27" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C3" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="41" t="s">
         <v>137</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="49" t="s">
+      <c r="J3" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="49" t="s">
+      <c r="N3" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="O3" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="P3" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="Q3" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="R3" s="49" t="s">
+      <c r="R3" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="S3" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="49" t="s">
+      <c r="T3" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="49" t="s">
+      <c r="U3" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="49" t="s">
+      <c r="V3" s="41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B4" s="46"/>
-      <c r="C4" s="83" t="s">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B4" s="38"/>
+      <c r="C4" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="84"/>
-      <c r="X4" s="6"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B5" s="50" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="75"/>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="43">
         <f>[2]EB1!D10</f>
         <v>-37.464700000000001</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="43">
         <f>[2]EB1!E10</f>
         <v>-317.19200000000001</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="43">
         <f>[2]EB1!F10</f>
         <v>0</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="43">
         <f>[2]EB1!G10</f>
         <v>-16.283999999999999</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="43">
         <f>[2]EB1!H10</f>
         <v>-2.1499999999999998E-2</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="43">
         <f>[2]EB1!I10</f>
         <v>-528.76099999999997</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="43">
         <f>[2]EB1!J10</f>
         <v>-164.50800000000001</v>
       </c>
-      <c r="K5" s="51">
+      <c r="K5" s="43">
         <f>[2]EB1!K10</f>
         <v>-0.61599999999999999</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="43">
         <f>[2]EB1!L10</f>
         <v>-205.88</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="43">
         <f>[2]EB1!M10</f>
         <v>0</v>
       </c>
-      <c r="N5" s="51">
+      <c r="N5" s="43">
         <f>[2]EB1!N10</f>
         <v>0</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="43">
         <f>[2]EB1!O10</f>
         <v>-3.21225</v>
       </c>
-      <c r="P5" s="51">
+      <c r="P5" s="43">
         <f>[2]EB1!P10</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="43">
         <f>[2]EB1!Q10</f>
         <v>0</v>
       </c>
-      <c r="R5" s="51">
+      <c r="R5" s="43">
         <f>[2]EB1!R10</f>
         <v>0</v>
       </c>
-      <c r="S5" s="51">
+      <c r="S5" s="43">
         <f>[2]EB1!S10</f>
         <v>-0.76</v>
       </c>
-      <c r="T5" s="51">
+      <c r="T5" s="43">
         <f>[2]EB1!T10</f>
         <v>0</v>
       </c>
-      <c r="U5" s="51">
+      <c r="U5" s="43">
         <f>[2]EB1!U10</f>
         <v>0</v>
       </c>
-      <c r="V5" s="85">
+      <c r="V5" s="76">
         <f>[2]EB1!V10</f>
         <v>-1274.6994499999998</v>
       </c>
-      <c r="X5" s="6"/>
-    </row>
-    <row r="6" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="50" t="s">
+    </row>
+    <row r="6" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="46">
         <f>[2]EB1!D11</f>
         <v>-6238.7780000000012</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="45">
         <f>[2]EB1!E11</f>
         <v>-2254.2175999999999</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="45">
         <f>[2]EB1!F11</f>
         <v>0</v>
       </c>
-      <c r="G6" s="53">
+      <c r="G6" s="45">
         <f>[2]EB1!G11</f>
         <v>-30.160499999999999</v>
       </c>
-      <c r="H6" s="53">
+      <c r="H6" s="45">
         <f>[2]EB1!H11</f>
         <v>0</v>
       </c>
-      <c r="I6" s="53">
+      <c r="I6" s="45">
         <f>[2]EB1!I11</f>
         <v>-23.835000000000001</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="45">
         <f>[2]EB1!J11</f>
         <v>0</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="45">
         <f>[2]EB1!K11</f>
         <v>0</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="45">
         <f>[2]EB1!L11</f>
         <v>-524.78</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="45">
         <f>[2]EB1!M11</f>
         <v>-33.529000000000003</v>
       </c>
-      <c r="N6" s="53">
+      <c r="N6" s="45">
         <f>[2]EB1!N11</f>
         <v>-4455</v>
       </c>
-      <c r="O6" s="53">
+      <c r="O6" s="45">
         <f>[2]EB1!O11</f>
         <v>-527.25918750000005</v>
       </c>
-      <c r="P6" s="53">
+      <c r="P6" s="45">
         <f>[2]EB1!P11</f>
         <v>-502.66000000000008</v>
       </c>
-      <c r="Q6" s="53">
+      <c r="Q6" s="45">
         <f>[2]EB1!Q11</f>
         <v>-263.8965</v>
       </c>
-      <c r="R6" s="53">
+      <c r="R6" s="45">
         <f>[2]EB1!R11</f>
         <v>-68</v>
       </c>
-      <c r="S6" s="51">
+      <c r="S6" s="43">
         <f>[2]EB1!S11</f>
         <v>-16.474499999999999</v>
       </c>
-      <c r="T6" s="51">
+      <c r="T6" s="43">
         <f>[2]EB1!T11</f>
         <v>868.77949999999998</v>
       </c>
-      <c r="U6" s="53">
+      <c r="U6" s="45">
         <f>[2]EB1!U11</f>
         <v>5790.5</v>
       </c>
-      <c r="V6" s="85">
+      <c r="V6" s="76">
         <f>[2]EB1!V11</f>
         <v>-8279.3107875000023</v>
       </c>
-      <c r="X6" s="95"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B7" s="50" t="s">
+      <c r="X6" s="83"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B7" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="43">
         <f>[2]EB1!D12</f>
         <v>-104.9074</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="43">
         <f>[2]EB1!E12</f>
         <v>-120.5204</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="43">
         <f>[2]EB1!F12</f>
         <v>0</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="43">
         <f>[2]EB1!G12</f>
         <v>-7.6189999999999998</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="43">
         <f>[2]EB1!H12</f>
         <v>0</v>
       </c>
-      <c r="I7" s="51">
+      <c r="I7" s="43">
         <f>[2]EB1!I12</f>
         <v>-0.23350000000000001</v>
       </c>
-      <c r="J7" s="51">
+      <c r="J7" s="43">
         <f>[2]EB1!J12</f>
         <v>0</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="43">
         <f>[2]EB1!K12</f>
         <v>0</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="43">
         <f>[2]EB1!L12</f>
         <v>-15.2</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="43">
         <f>[2]EB1!M12</f>
         <v>-1.772</v>
       </c>
-      <c r="N7" s="51">
+      <c r="N7" s="43">
         <f>[2]EB1!N12</f>
         <v>0</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="43">
         <f>[2]EB1!O12</f>
         <v>-105.15525</v>
       </c>
-      <c r="P7" s="51">
+      <c r="P7" s="43">
         <f>[2]EB1!P12</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="43">
         <f>[2]EB1!Q12</f>
         <v>0</v>
       </c>
-      <c r="R7" s="51">
+      <c r="R7" s="43">
         <f>[2]EB1!R12</f>
         <v>0</v>
       </c>
-      <c r="S7" s="51">
+      <c r="S7" s="43">
         <f>[2]EB1!S12</f>
         <v>-0.78449999999999998</v>
       </c>
-      <c r="T7" s="51">
+      <c r="T7" s="43">
         <f>[2]EB1!T12</f>
         <v>329.37150000000003</v>
       </c>
-      <c r="U7" s="51">
+      <c r="U7" s="43">
         <f>[2]EB1!U12</f>
         <v>0</v>
       </c>
-      <c r="V7" s="85">
+      <c r="V7" s="76">
         <f>[2]EB1!V12</f>
         <v>-26.820549999999912</v>
       </c>
-      <c r="X7" s="6"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B8" s="50" t="s">
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B8" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="43">
         <f>[2]EB1!D13</f>
         <v>0</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="43">
         <f>[2]EB1!E13</f>
         <v>0</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="43">
         <f>[2]EB1!F13</f>
         <v>-15868.2305</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="43">
         <f>[2]EB1!G13</f>
         <v>5701.34</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="43">
         <f>[2]EB1!H13</f>
         <v>969.47799999999995</v>
       </c>
-      <c r="I8" s="51">
+      <c r="I8" s="43">
         <f>[2]EB1!I13</f>
         <v>1086.3040000000001</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="43">
         <f>[2]EB1!J13</f>
         <v>3354.9119999999998</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="43">
         <f>[2]EB1!K13</f>
         <v>970.28800000000001</v>
       </c>
-      <c r="L8" s="51">
+      <c r="L8" s="43">
         <f>[2]EB1!L13</f>
         <v>2285.1019999999999</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="43">
         <f>[2]EB1!M13</f>
         <v>1299.9449999999999</v>
       </c>
-      <c r="N8" s="51">
+      <c r="N8" s="43">
         <f>[2]EB1!N13</f>
         <v>0</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="43">
         <f>[2]EB1!O13</f>
         <v>0</v>
       </c>
-      <c r="P8" s="51">
+      <c r="P8" s="43">
         <f>[2]EB1!P13</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="43">
         <f>[2]EB1!Q13</f>
         <v>0</v>
       </c>
-      <c r="R8" s="51">
+      <c r="R8" s="43">
         <f>[2]EB1!R13</f>
         <v>0</v>
       </c>
-      <c r="S8" s="51">
+      <c r="S8" s="43">
         <f>[2]EB1!S13</f>
         <v>0</v>
       </c>
-      <c r="T8" s="51">
+      <c r="T8" s="43">
         <f>[2]EB1!T13</f>
         <v>0</v>
       </c>
-      <c r="U8" s="51">
+      <c r="U8" s="43">
         <f>[2]EB1!U13</f>
         <v>0</v>
       </c>
-      <c r="V8" s="85">
+      <c r="V8" s="76">
         <f>[2]EB1!V13</f>
         <v>-200.86150000000021</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
-      <c r="C9" s="55" t="s">
+    <row r="9" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="B9" s="38"/>
+      <c r="C9" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="50">
         <f>SUM(D5:D8)</f>
         <v>-6381.1501000000017</v>
       </c>
-      <c r="E9" s="56">
+      <c r="E9" s="48">
         <f t="shared" ref="E9:U9" si="0">SUM(E5:E8)</f>
         <v>-2691.93</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="48">
         <f t="shared" si="0"/>
         <v>-15868.2305</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="48">
         <f t="shared" si="0"/>
         <v>5647.2764999999999</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="48">
         <f t="shared" si="0"/>
         <v>969.45650000000001</v>
       </c>
-      <c r="I9" s="56">
+      <c r="I9" s="48">
         <f t="shared" si="0"/>
         <v>533.47450000000003</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="48">
         <f t="shared" si="0"/>
         <v>3190.404</v>
       </c>
-      <c r="K9" s="56">
+      <c r="K9" s="48">
         <f t="shared" si="0"/>
         <v>969.67200000000003</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L9" s="48">
         <f t="shared" si="0"/>
         <v>1539.2419999999997</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="48">
         <f t="shared" si="0"/>
         <v>1264.644</v>
       </c>
-      <c r="N9" s="56">
+      <c r="N9" s="48">
         <f t="shared" si="0"/>
         <v>-4455</v>
       </c>
-      <c r="O9" s="56">
+      <c r="O9" s="48">
         <f t="shared" si="0"/>
         <v>-635.62668750000012</v>
       </c>
-      <c r="P9" s="56">
+      <c r="P9" s="48">
         <f t="shared" si="0"/>
         <v>-502.66000000000008</v>
       </c>
-      <c r="Q9" s="56">
+      <c r="Q9" s="48">
         <f t="shared" si="0"/>
         <v>-263.8965</v>
       </c>
-      <c r="R9" s="56">
+      <c r="R9" s="48">
         <f t="shared" si="0"/>
         <v>-68</v>
       </c>
-      <c r="S9" s="56">
+      <c r="S9" s="48">
         <f t="shared" si="0"/>
         <v>-18.019000000000002</v>
       </c>
-      <c r="T9" s="56">
+      <c r="T9" s="48">
         <f t="shared" si="0"/>
         <v>1198.1510000000001</v>
       </c>
-      <c r="U9" s="56">
+      <c r="U9" s="48">
         <f t="shared" si="0"/>
         <v>5790.5</v>
       </c>
-      <c r="V9" s="57">
+      <c r="V9" s="49">
         <f>SUM(V5:V8)</f>
         <v>-9781.6922875000037</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="D10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="C12" s="53" t="s">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="D10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+    </row>
+    <row r="12" spans="2:27" ht="15" x14ac:dyDescent="0.25">
+      <c r="C12" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="V13" s="8"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="V14" s="8"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="C15" s="64" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C15" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="V15" s="8"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="23" t="s">
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="V16" s="8"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="90">
+      <c r="C17" s="81">
         <v>1</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="91"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="82"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5054,7 +4996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M5"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5070,41 +5012,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E1" s="11"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="2:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
     </row>
     <row r="4" spans="2:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="E4" s="119" t="s">
+      <c r="E4" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="120"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="121"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="102"/>
+      <c r="M4" s="103"/>
     </row>
     <row r="5" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5117,7 +5056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:R33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -5147,346 +5086,322 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="39"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="2:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="str">
+      <c r="B2" s="10" t="str">
         <f>'EB1'!B6</f>
         <v>ELC</v>
       </c>
-      <c r="C2" s="22" t="str">
+      <c r="C2" s="18" t="str">
         <f>'EB1'!C6</f>
         <v>Electricity Plants</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="10" t="str">
         <f>'EB1'!Z2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="14" t="str">
+      <c r="F2" s="10" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="J2" s="106" t="s">
+      <c r="H2" s="9"/>
+      <c r="J2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="109" t="s">
+      <c r="K3" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="108" t="s">
+      <c r="L3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="108" t="s">
+      <c r="M3" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="108" t="s">
+      <c r="N3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="108" t="s">
+      <c r="O3" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="108" t="s">
+      <c r="P3" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="108" t="s">
+      <c r="Q3" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="108" t="s">
+      <c r="R3" s="94" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="6" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="J4" s="110" t="s">
+    <row r="4" spans="2:18" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="J4" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="110" t="s">
+      <c r="K4" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="110" t="s">
+      <c r="O4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="110" t="s">
+      <c r="Q4" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="110" t="s">
+      <c r="R4" s="96" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="15"/>
-      <c r="J5" s="111" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="11"/>
+      <c r="J5" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111" t="str">
+      <c r="K5" s="97"/>
+      <c r="L5" s="97" t="str">
         <f>$B$2&amp;'EB1'!$D$2</f>
         <v>ELCCOA</v>
       </c>
-      <c r="M5" s="112" t="str">
+      <c r="M5" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$D$3</f>
         <v>Electricity Plants Solid Fuels</v>
       </c>
-      <c r="N5" s="111" t="str">
+      <c r="N5" s="97" t="str">
         <f t="shared" ref="N5:N12" si="0">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="15"/>
-      <c r="J6" s="111"/>
-      <c r="K6" s="111"/>
-      <c r="L6" s="111" t="str">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="11"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97" t="str">
         <f>$B$2&amp;'EB1'!$E$2</f>
         <v>ELCGAS</v>
       </c>
-      <c r="M6" s="112" t="str">
+      <c r="M6" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$E$3</f>
         <v>Electricity Plants Natural Gas</v>
       </c>
-      <c r="N6" s="111" t="str">
+      <c r="N6" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
-      <c r="R6" s="111"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="15"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111" t="str">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="11"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97" t="str">
         <f>$B$2&amp;'EB1'!$F$2</f>
         <v>ELCOIL</v>
       </c>
-      <c r="M7" s="112" t="str">
+      <c r="M7" s="98" t="str">
         <f>$C$2&amp;" "&amp;RIGHT('EB1'!$F$3,3)</f>
         <v>Electricity Plants oil</v>
       </c>
-      <c r="N7" s="111" t="str">
+      <c r="N7" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
-      <c r="R7" s="111"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="15"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="111"/>
-      <c r="L8" s="111" t="str">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="11"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97" t="str">
         <f>$B$2&amp;'EB1'!$N$2</f>
         <v>ELCNUC</v>
       </c>
-      <c r="M8" s="112" t="str">
+      <c r="M8" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$N$3</f>
         <v>Electricity Plants Nuclear Energy</v>
       </c>
-      <c r="N8" s="111" t="str">
+      <c r="N8" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="111"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="15"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111" t="str">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="11"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97" t="str">
         <f>$B$2&amp;'EB1'!$O$2</f>
         <v>ELCBIO</v>
       </c>
-      <c r="M9" s="112" t="str">
+      <c r="M9" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$O$3</f>
         <v>Electricity Plants Biomass</v>
       </c>
-      <c r="N9" s="111" t="str">
+      <c r="N9" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="15"/>
-      <c r="J10" s="111"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111" t="str">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="11"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97" t="str">
         <f>$B$2&amp;'EB1'!$P$2</f>
         <v>ELCHYD</v>
       </c>
-      <c r="M10" s="112" t="str">
+      <c r="M10" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$P$3</f>
         <v>Electricity Plants Hydro power</v>
       </c>
-      <c r="N10" s="111" t="str">
+      <c r="N10" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
-      <c r="R10" s="111"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="15"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111" t="str">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="11"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97" t="str">
         <f>$B$2&amp;'EB1'!$Q$2</f>
         <v>ELCWIN</v>
       </c>
-      <c r="M11" s="112" t="str">
+      <c r="M11" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$Q$3</f>
         <v>Electricity Plants Wind energy</v>
       </c>
-      <c r="N11" s="111" t="str">
+      <c r="N11" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="15"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="111" t="str">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="11"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97" t="str">
         <f>$B$2&amp;'EB1'!$R$2</f>
         <v>ELCSOL</v>
       </c>
-      <c r="M12" s="112" t="str">
+      <c r="M12" s="98" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$R$3</f>
         <v>Electricity Plants Solar energy</v>
       </c>
-      <c r="N12" s="111" t="str">
+      <c r="N12" s="97" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L13" s="27"/>
-      <c r="M13" s="29"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="22"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D14" s="4" t="s">
@@ -5494,147 +5409,147 @@
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="J14" s="106" t="s">
+      <c r="J14" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="106"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="113"/>
-      <c r="P14" s="113"/>
-      <c r="Q14" s="113"/>
-      <c r="R14" s="113"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="G15" s="80" t="s">
+      <c r="G15" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="H15" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="108" t="s">
+      <c r="J15" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="109" t="s">
+      <c r="K15" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="108" t="s">
+      <c r="L15" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="108" t="s">
+      <c r="M15" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="N15" s="108" t="s">
+      <c r="N15" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="O15" s="108" t="s">
+      <c r="O15" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="108" t="s">
+      <c r="P15" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="Q15" s="108" t="s">
+      <c r="Q15" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="R15" s="108" t="s">
+      <c r="R15" s="94" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="J16" s="110" t="s">
+      <c r="J16" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="110" t="s">
+      <c r="K16" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="110" t="s">
+      <c r="L16" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="110" t="s">
+      <c r="M16" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="110" t="s">
+      <c r="N16" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="110" t="s">
+      <c r="O16" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="P16" s="110" t="s">
+      <c r="P16" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="Q16" s="110" t="s">
+      <c r="Q16" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="110" t="s">
+      <c r="R16" s="96" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17" t="str">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="str">
         <f>F2&amp;"a"</f>
         <v>M€2005a</v>
       </c>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17" t="s">
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="J17" s="110" t="s">
+      <c r="J17" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="114"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="99"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="str">
+      <c r="B18" s="21" t="str">
         <f>Sector_Fuels_ELC!L18</f>
         <v>FTE-ELCCOA</v>
       </c>
@@ -5642,44 +5557,44 @@
         <f>RIGHT(D18,3)</f>
         <v>COA</v>
       </c>
-      <c r="D18" s="25" t="str">
+      <c r="D18" s="21" t="str">
         <f>L5</f>
         <v>ELCCOA</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="71">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="63">
         <v>1</v>
       </c>
-      <c r="H18" s="72">
+      <c r="H18" s="64">
         <v>30</v>
       </c>
-      <c r="J18" s="115" t="s">
+      <c r="J18" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="K18" s="116"/>
-      <c r="L18" s="111" t="str">
+      <c r="K18" s="100"/>
+      <c r="L18" s="97" t="str">
         <f t="shared" ref="L18:L25" si="1">"FT"&amp;$G$2&amp;"-"&amp;L5</f>
         <v>FTE-ELCCOA</v>
       </c>
-      <c r="M18" s="112" t="str">
+      <c r="M18" s="98" t="str">
         <f t="shared" ref="M18:M25" si="2">$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M5</f>
         <v>Sector Fuel Technology Existing Electricity Plants Solid Fuels</v>
       </c>
-      <c r="N18" s="111" t="str">
+      <c r="N18" s="97" t="str">
         <f t="shared" ref="N18:N25" si="3">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="O18" s="111" t="str">
+      <c r="O18" s="97" t="str">
         <f t="shared" ref="O18:O25" si="4">$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="111"/>
-      <c r="R18" s="111"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="25" t="str">
+      <c r="B19" s="21" t="str">
         <f>Sector_Fuels_ELC!L19</f>
         <v>FTE-ELCGAS</v>
       </c>
@@ -5687,42 +5602,42 @@
         <f>RIGHT(D19,3)</f>
         <v>GAS</v>
       </c>
-      <c r="D19" s="25" t="str">
+      <c r="D19" s="21" t="str">
         <f>L6</f>
         <v>ELCGAS</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="71">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="63">
         <v>1</v>
       </c>
-      <c r="H19" s="72">
+      <c r="H19" s="64">
         <v>30</v>
       </c>
-      <c r="J19" s="113"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="111" t="str">
+      <c r="J19" s="97"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCGAS</v>
       </c>
-      <c r="M19" s="112" t="str">
+      <c r="M19" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Natural Gas</v>
       </c>
-      <c r="N19" s="111" t="str">
+      <c r="N19" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O19" s="111" t="str">
+      <c r="O19" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P19" s="111"/>
-      <c r="Q19" s="111"/>
-      <c r="R19" s="111"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="97"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="25" t="str">
+      <c r="B20" s="21" t="str">
         <f>Sector_Fuels_ELC!L20</f>
         <v>FTE-ELCOIL</v>
       </c>
@@ -5730,153 +5645,153 @@
         <f>'EB1'!G$2</f>
         <v>DSL</v>
       </c>
-      <c r="D20" s="25" t="str">
+      <c r="D20" s="21" t="str">
         <f>L7</f>
         <v>ELCOIL</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="62">
         <f>-'EB1'!G$6/-SUM('EB1'!$G$6:$M$6)</f>
         <v>4.9257354796510562E-2</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="71">
+      <c r="F20" s="12"/>
+      <c r="G20" s="63">
         <v>1</v>
       </c>
-      <c r="H20" s="72">
+      <c r="H20" s="64">
         <v>30</v>
       </c>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="111" t="str">
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCOIL</v>
       </c>
-      <c r="M20" s="112" t="str">
+      <c r="M20" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants oil</v>
       </c>
-      <c r="N20" s="111" t="str">
+      <c r="N20" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O20" s="111" t="str">
+      <c r="O20" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="25"/>
+      <c r="B21" s="21"/>
       <c r="C21" t="str">
         <f>'EB1'!I$2</f>
         <v>LPG</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="70">
+      <c r="D21" s="21"/>
+      <c r="E21" s="62">
         <f>-'EB1'!I$6/-SUM('EB1'!$G$6:$M$6)</f>
         <v>3.8926710484734312E-2</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="72"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="111" t="str">
+      <c r="F21" s="12"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="64"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCNUC</v>
       </c>
-      <c r="M21" s="112" t="str">
+      <c r="M21" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Nuclear Energy</v>
       </c>
-      <c r="N21" s="111" t="str">
+      <c r="N21" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O21" s="111" t="str">
+      <c r="O21" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="117"/>
-      <c r="R21" s="111"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="25"/>
+      <c r="B22" s="21"/>
       <c r="C22" t="str">
         <f>'EB1'!L$2</f>
         <v>HFO</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="70">
+      <c r="D22" s="21"/>
+      <c r="E22" s="62">
         <f>-'EB1'!L$6/-SUM('EB1'!$G$6:$M$6)</f>
         <v>0.85705723214511731</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="72"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111" t="str">
+      <c r="F22" s="12"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="64"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCBIO</v>
       </c>
-      <c r="M22" s="112" t="str">
+      <c r="M22" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Biomass</v>
       </c>
-      <c r="N22" s="111" t="str">
+      <c r="N22" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O22" s="111" t="str">
+      <c r="O22" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P22" s="111"/>
-      <c r="Q22" s="111"/>
-      <c r="R22" s="111"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="25"/>
+      <c r="B23" s="21"/>
       <c r="C23" t="str">
         <f>'EB1'!M$2</f>
         <v>OPP</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="70">
+      <c r="D23" s="21"/>
+      <c r="E23" s="62">
         <f>-'EB1'!M$6/-SUM('EB1'!$G$6:$M$6)</f>
         <v>5.4758702573637796E-2</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="72"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="111" t="str">
+      <c r="F23" s="12"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="64"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCHYD</v>
       </c>
-      <c r="M23" s="112" t="str">
+      <c r="M23" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Hydro power</v>
       </c>
-      <c r="N23" s="111" t="str">
+      <c r="N23" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O23" s="111" t="str">
+      <c r="O23" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="113"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="28" t="str">
+      <c r="B24" s="21" t="str">
         <f>Sector_Fuels_ELC!L21</f>
         <v>FTE-ELCNUC</v>
       </c>
@@ -5884,42 +5799,42 @@
         <f>RIGHT(D24,3)</f>
         <v>NUC</v>
       </c>
-      <c r="D24" s="25" t="str">
+      <c r="D24" s="21" t="str">
         <f>L8</f>
         <v>ELCNUC</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="71">
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="63">
         <v>1</v>
       </c>
-      <c r="H24" s="72">
+      <c r="H24" s="64">
         <v>30</v>
       </c>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="111" t="str">
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCWIN</v>
       </c>
-      <c r="M24" s="112" t="str">
+      <c r="M24" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Wind energy</v>
       </c>
-      <c r="N24" s="111" t="str">
+      <c r="N24" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O24" s="111" t="str">
+      <c r="O24" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="113"/>
-      <c r="R24" s="113"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="28" t="str">
+      <c r="B25" s="21" t="str">
         <f>Sector_Fuels_ELC!L22</f>
         <v>FTE-ELCBIO</v>
       </c>
@@ -5927,42 +5842,42 @@
         <f>RIGHT(D25,3)</f>
         <v>BIO</v>
       </c>
-      <c r="D25" s="25" t="str">
+      <c r="D25" s="21" t="str">
         <f>L9</f>
         <v>ELCBIO</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="71">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="63">
         <v>1</v>
       </c>
-      <c r="H25" s="72">
+      <c r="H25" s="64">
         <v>30</v>
       </c>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-      <c r="L25" s="111" t="str">
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCSOL</v>
       </c>
-      <c r="M25" s="112" t="str">
+      <c r="M25" s="98" t="str">
         <f t="shared" si="2"/>
         <v>Sector Fuel Technology Existing Electricity Plants Solar energy</v>
       </c>
-      <c r="N25" s="111" t="str">
+      <c r="N25" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="O25" s="111" t="str">
+      <c r="O25" s="97" t="str">
         <f t="shared" si="4"/>
         <v>PJa</v>
       </c>
-      <c r="P25" s="113"/>
-      <c r="Q25" s="113"/>
-      <c r="R25" s="113"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="28" t="str">
+      <c r="B26" s="21" t="str">
         <f>Sector_Fuels_ELC!L23</f>
         <v>FTE-ELCHYD</v>
       </c>
@@ -5970,21 +5885,21 @@
         <f>RIGHT(D26,3)</f>
         <v>HYD</v>
       </c>
-      <c r="D26" s="25" t="str">
+      <c r="D26" s="21" t="str">
         <f>L10</f>
         <v>ELCHYD</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="71">
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="63">
         <v>1</v>
       </c>
-      <c r="H26" s="72">
+      <c r="H26" s="64">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="28" t="str">
+      <c r="B27" s="21" t="str">
         <f>Sector_Fuels_ELC!L24</f>
         <v>FTE-ELCWIN</v>
       </c>
@@ -5992,21 +5907,21 @@
         <f>RIGHT(D27,3)</f>
         <v>WIN</v>
       </c>
-      <c r="D27" s="25" t="str">
+      <c r="D27" s="21" t="str">
         <f>L11</f>
         <v>ELCWIN</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="71">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="63">
         <v>1</v>
       </c>
-      <c r="H27" s="72">
+      <c r="H27" s="64">
         <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="28" t="str">
+      <c r="B28" s="21" t="str">
         <f>Sector_Fuels_ELC!L25</f>
         <v>FTE-ELCSOL</v>
       </c>
@@ -6014,27 +5929,27 @@
         <f>RIGHT(D28,3)</f>
         <v>SOL</v>
       </c>
-      <c r="D28" s="25" t="str">
+      <c r="D28" s="21" t="str">
         <f>L12</f>
         <v>ELCSOL</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="71">
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="63">
         <v>1</v>
       </c>
-      <c r="H28" s="72">
+      <c r="H28" s="64">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="52"/>
+      <c r="B32" s="44"/>
       <c r="C32" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="68"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="1" t="s">
         <v>145</v>
       </c>
@@ -6048,31 +5963,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AB65536"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="25" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="8.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" style="21" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
@@ -6082,211 +5997,209 @@
     <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="8.85546875" style="25"/>
+    <col min="29" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="20" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="2:28" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="str">
+      <c r="B2" s="10" t="str">
         <f>'EB1'!B6</f>
         <v>ELC</v>
       </c>
-      <c r="C2" s="22" t="str">
+      <c r="C2" s="18" t="str">
         <f>'EB1'!C6</f>
         <v>Electricity Plants</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="10" t="str">
         <f>'EB1'!Z2</f>
         <v>PJ</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="14" t="str">
+      <c r="G2" s="10" t="str">
         <f>'EB1'!Y2</f>
         <v>M€2005</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="T2" s="106" t="s">
+      <c r="T2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="106"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="T3" s="108" t="s">
+      <c r="T3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="109" t="s">
+      <c r="U3" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="V3" s="108" t="s">
+      <c r="V3" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="W3" s="108" t="s">
+      <c r="W3" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="X3" s="108" t="s">
+      <c r="X3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="Y3" s="108" t="s">
+      <c r="Y3" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" s="108" t="s">
+      <c r="Z3" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="AA3" s="108" t="s">
+      <c r="AA3" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="108" t="s">
+      <c r="AB3" s="94" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:28" s="26" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+    <row r="4" spans="2:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="110" t="s">
+      <c r="H4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="T4" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="U4" s="110" t="s">
+      <c r="U4" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="110" t="s">
+      <c r="V4" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="110" t="s">
+      <c r="W4" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="X4" s="110" t="s">
+      <c r="X4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="110" t="s">
+      <c r="Y4" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="Z4" s="110" t="s">
+      <c r="Z4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="110" t="s">
+      <c r="AA4" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="AB4" s="110" t="s">
+      <c r="AB4" s="96" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:28" s="26" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+    <row r="5" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="115" t="s">
+      <c r="H5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="T5" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="U5" s="111"/>
-      <c r="V5" s="115" t="str">
+      <c r="U5" s="97"/>
+      <c r="V5" s="93" t="str">
         <f>'EB1'!$U$2</f>
         <v>ELC</v>
       </c>
-      <c r="W5" s="115" t="str">
+      <c r="W5" s="93" t="str">
         <f>'EB1'!$U$3</f>
         <v>Electricity</v>
       </c>
-      <c r="X5" s="115" t="str">
+      <c r="X5" s="93" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115" t="s">
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="AA5" s="115"/>
-      <c r="AB5" s="115" t="s">
+      <c r="AA5" s="93"/>
+      <c r="AB5" s="93" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="T6" s="113" t="s">
+      <c r="T6" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="U6" s="113"/>
-      <c r="V6" s="113" t="str">
+      <c r="U6" s="97"/>
+      <c r="V6" s="97" t="str">
         <f>$B$2&amp;'EB1'!$C$15</f>
         <v>ELCCO2</v>
       </c>
-      <c r="W6" s="113" t="str">
+      <c r="W6" s="97" t="str">
         <f>$C$2&amp;" "&amp;'EB1'!$C$16</f>
         <v>Electricity Plants Carbon dioxide</v>
       </c>
-      <c r="X6" s="113" t="str">
+      <c r="X6" s="97" t="str">
         <f>'EB1'!$AA$2</f>
         <v>kt</v>
       </c>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="113"/>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97"/>
+      <c r="AB6" s="97"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.2">
       <c r="T7" s="2"/>
@@ -6304,823 +6217,804 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="3"/>
-      <c r="Q8" s="26"/>
-      <c r="T8" s="106" t="s">
+      <c r="T8" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="U8" s="106"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
     </row>
     <row r="9" spans="2:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="G9" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="80" t="s">
+      <c r="J9" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="K9" s="80" t="s">
+      <c r="K9" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="80" t="s">
+      <c r="M9" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="N9" s="80" t="s">
+      <c r="N9" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="O9" s="80" t="s">
+      <c r="O9" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="P9" s="80" t="s">
+      <c r="P9" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="101" t="s">
+      <c r="Q9" s="23"/>
+      <c r="R9" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="108" t="s">
+      <c r="S9" s="27"/>
+      <c r="T9" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="U9" s="109" t="s">
+      <c r="U9" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="V9" s="108" t="s">
+      <c r="V9" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="W9" s="108" t="s">
+      <c r="W9" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="X9" s="108" t="s">
+      <c r="X9" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="Y9" s="108" t="s">
+      <c r="Y9" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="108" t="s">
+      <c r="Z9" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="AA9" s="108" t="s">
+      <c r="AA9" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="AB9" s="108" t="s">
+      <c r="AB9" s="94" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="J10" s="86" t="s">
+      <c r="J10" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="O10" s="19" t="s">
+      <c r="O10" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="P10" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="38" t="s">
+      <c r="R10" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="S10" s="36"/>
-      <c r="T10" s="110" t="s">
+      <c r="S10" s="28"/>
+      <c r="T10" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="U10" s="110" t="s">
+      <c r="U10" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="V10" s="110" t="s">
+      <c r="V10" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="110" t="s">
+      <c r="W10" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="X10" s="110" t="s">
+      <c r="X10" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="Y10" s="110" t="s">
+      <c r="Y10" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="Z10" s="110" t="s">
+      <c r="Z10" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="AA10" s="110" t="s">
+      <c r="AA10" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="AB10" s="110" t="s">
+      <c r="AB10" s="96" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="105" t="str">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="13" t="str">
         <f>$F$2</f>
         <v>GW</v>
       </c>
-      <c r="F11" s="105" t="str">
+      <c r="F11" s="13" t="str">
         <f>$F$2</f>
         <v>GW</v>
       </c>
-      <c r="G11" s="17" t="str">
+      <c r="G11" s="13" t="str">
         <f>$F$2</f>
         <v>GW</v>
       </c>
-      <c r="H11" s="81" t="str">
+      <c r="H11" s="72" t="str">
         <f>$F$2</f>
         <v>GW</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="17" t="str">
+      <c r="I11" s="13"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="13" t="str">
         <f>$G$2&amp;"/"&amp;$F$2</f>
         <v>M€2005/GW</v>
       </c>
-      <c r="L11" s="17" t="str">
+      <c r="L11" s="13" t="str">
         <f>$G$2&amp;"/"&amp;$F$2</f>
         <v>M€2005/GW</v>
       </c>
-      <c r="M11" s="17" t="str">
+      <c r="M11" s="13" t="str">
         <f>$G$2&amp;"/"&amp;$E$2</f>
         <v>M€2005/PJ</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="O11" s="17" t="str">
+      <c r="O11" s="13" t="str">
         <f>$E$2&amp;"/"&amp;$F$2</f>
         <v>PJ/GW</v>
       </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="102" t="s">
+      <c r="P11" s="13"/>
+      <c r="R11" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="S11" s="36"/>
-      <c r="T11" s="110" t="s">
+      <c r="S11" s="28"/>
+      <c r="T11" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="U11" s="110"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="110"/>
-      <c r="AB11" s="110"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="96"/>
+      <c r="W11" s="96"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="96"/>
+      <c r="AB11" s="96"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B12" s="25" t="str">
+      <c r="B12" s="21" t="str">
         <f t="shared" ref="B12:B19" si="0">V12</f>
         <v>ELCTECOA00</v>
       </c>
-      <c r="C12" s="25" t="str">
+      <c r="C12" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L5,3)</f>
         <v>ELCCOA</v>
       </c>
-      <c r="D12" s="25" t="str">
+      <c r="D12" s="21" t="str">
         <f t="shared" ref="D12:D19" si="1">$V$5</f>
         <v>ELC</v>
       </c>
-      <c r="G12" s="98">
+      <c r="G12" s="86">
         <f>(-'EB1'!$D$6*$I$12)/($J$12*$O$12)</f>
         <v>89.372771062763022</v>
       </c>
-      <c r="H12" s="69"/>
-      <c r="I12" s="76">
+      <c r="H12" s="61"/>
+      <c r="I12" s="67">
         <v>0.38400000000000001</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J12" s="67">
         <v>0.85</v>
       </c>
-      <c r="K12" s="75"/>
-      <c r="L12" s="76">
+      <c r="K12" s="66"/>
+      <c r="L12" s="67">
         <v>40</v>
       </c>
-      <c r="M12" s="76">
+      <c r="M12" s="67">
         <v>0.5</v>
       </c>
-      <c r="N12" s="75">
+      <c r="N12" s="66">
         <v>30</v>
       </c>
-      <c r="O12" s="75">
+      <c r="O12" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="P12" s="76">
+      <c r="P12" s="67">
         <v>1</v>
       </c>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="34">
+      <c r="R12" s="26">
         <f t="shared" ref="R12:R19" si="2">G12*$J12*$O12</f>
         <v>2395.6907520000004</v>
       </c>
-      <c r="S12" s="100"/>
-      <c r="T12" s="111" t="s">
+      <c r="S12" s="87"/>
+      <c r="T12" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="U12" s="111"/>
-      <c r="V12" s="111" t="str">
+      <c r="U12" s="97"/>
+      <c r="V12" s="97" t="str">
         <f>$B$2&amp;$C$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$5,3)&amp;"00"</f>
         <v>ELCTECOA00</v>
       </c>
-      <c r="W12" s="112" t="str">
+      <c r="W12" s="98" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(V12,2)&amp;" - "&amp;'EB1'!D3</f>
         <v>Power Plants Existing00 - Solid Fuels</v>
       </c>
-      <c r="X12" s="111" t="str">
+      <c r="X12" s="97" t="str">
         <f t="shared" ref="X12:X19" si="3">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="Y12" s="111" t="str">
+      <c r="Y12" s="97" t="str">
         <f t="shared" ref="Y12:Y19" si="4">$F$2</f>
         <v>GW</v>
       </c>
-      <c r="Z12" s="115" t="s">
+      <c r="Z12" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="AA12" s="111"/>
-      <c r="AB12" s="111"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="97"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B13" s="25" t="str">
+      <c r="B13" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCTEGAS00</v>
       </c>
-      <c r="C13" s="25" t="str">
+      <c r="C13" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L6,3)</f>
         <v>ELCGAS</v>
       </c>
-      <c r="D13" s="25" t="str">
+      <c r="D13" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="G13" s="98">
+      <c r="G13" s="86">
         <f>(-'EB1'!$E$6*$I$13)/($J$13*$O$13)</f>
         <v>41.450437783149788</v>
       </c>
-      <c r="H13" s="69"/>
-      <c r="I13" s="94">
+      <c r="H13" s="61"/>
+      <c r="I13" s="67">
         <v>0.4929</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="67">
         <v>0.85</v>
       </c>
-      <c r="K13" s="75"/>
-      <c r="L13" s="76">
+      <c r="K13" s="66"/>
+      <c r="L13" s="67">
         <v>35</v>
       </c>
-      <c r="M13" s="76">
+      <c r="M13" s="67">
         <v>0.4</v>
       </c>
-      <c r="N13" s="75">
+      <c r="N13" s="66">
         <v>20</v>
       </c>
-      <c r="O13" s="75">
+      <c r="O13" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="P13" s="76">
+      <c r="P13" s="67">
         <v>1</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="34">
+      <c r="R13" s="26">
         <f t="shared" si="2"/>
         <v>1111.1038550399999</v>
       </c>
-      <c r="S13" s="37"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111" t="str">
+      <c r="S13" s="29"/>
+      <c r="T13" s="97"/>
+      <c r="U13" s="97"/>
+      <c r="V13" s="97" t="str">
         <f>$B$2&amp;$C$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$6,3)&amp;"00"</f>
         <v>ELCTEGAS00</v>
       </c>
-      <c r="W13" s="112" t="str">
+      <c r="W13" s="98" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(V13,2)&amp;" - "&amp;'EB1'!E3</f>
         <v>Power Plants Existing00 - Natural Gas</v>
       </c>
-      <c r="X13" s="111" t="str">
+      <c r="X13" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="Y13" s="111" t="str">
+      <c r="Y13" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="Z13" s="111"/>
-      <c r="AA13" s="111"/>
-      <c r="AB13" s="111"/>
+      <c r="Z13" s="97"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="97"/>
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B14" s="25" t="str">
+      <c r="B14" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCTEOIL00</v>
       </c>
-      <c r="C14" s="25" t="str">
+      <c r="C14" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L7,3)</f>
         <v>ELCOIL</v>
       </c>
-      <c r="D14" s="25" t="str">
+      <c r="D14" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="G14" s="98">
+      <c r="G14" s="86">
         <f>((-SUM('EB1'!G6:M6)*$I$14)/($J$14*$O$14))</f>
         <v>5.710602448742053</v>
       </c>
-      <c r="H14" s="69"/>
-      <c r="I14" s="94">
+      <c r="H14" s="61"/>
+      <c r="I14" s="67">
         <v>0.25</v>
       </c>
-      <c r="J14" s="94">
+      <c r="J14" s="67">
         <v>0.85</v>
       </c>
-      <c r="K14" s="93"/>
-      <c r="L14" s="94">
+      <c r="K14" s="66"/>
+      <c r="L14" s="67">
         <v>20</v>
       </c>
-      <c r="M14" s="94">
+      <c r="M14" s="67">
         <v>0.2</v>
       </c>
-      <c r="N14" s="93">
+      <c r="N14" s="66">
         <v>30</v>
       </c>
-      <c r="O14" s="75">
+      <c r="O14" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="P14" s="76">
+      <c r="P14" s="67">
         <v>1</v>
       </c>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="34">
+      <c r="R14" s="26">
         <f t="shared" si="2"/>
         <v>153.07612499999996</v>
       </c>
-      <c r="S14" s="37"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="111" t="str">
+      <c r="S14" s="29"/>
+      <c r="T14" s="97"/>
+      <c r="U14" s="97"/>
+      <c r="V14" s="97" t="str">
         <f>$B$2&amp;$C$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$7,3)&amp;"00"</f>
         <v>ELCTEOIL00</v>
       </c>
-      <c r="W14" s="112" t="str">
+      <c r="W14" s="98" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(V14,2)&amp;" - "&amp;'EB1'!F3</f>
         <v>Power Plants Existing00 - Crude oil</v>
       </c>
-      <c r="X14" s="111" t="str">
+      <c r="X14" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="Y14" s="111" t="str">
+      <c r="Y14" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="Z14" s="111"/>
-      <c r="AA14" s="111"/>
-      <c r="AB14" s="111"/>
+      <c r="Z14" s="97"/>
+      <c r="AA14" s="97"/>
+      <c r="AB14" s="97"/>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="str">
+      <c r="B15" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCNENUC00</v>
       </c>
-      <c r="C15" s="25" t="str">
+      <c r="C15" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L8,3)</f>
         <v>ELCNUC</v>
       </c>
-      <c r="D15" s="28" t="str">
+      <c r="D15" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="99">
+      <c r="G15" s="86">
         <f>(-'EB1'!$N$6*$I$15)/($J$15*$O$15)</f>
         <v>51.797945205479458</v>
       </c>
-      <c r="H15" s="99">
+      <c r="H15" s="86">
         <f>G15</f>
         <v>51.797945205479458</v>
       </c>
-      <c r="I15" s="93">
+      <c r="I15" s="66">
         <v>0.33</v>
       </c>
-      <c r="J15" s="94">
+      <c r="J15" s="67">
         <v>0.9</v>
       </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="94">
+      <c r="K15" s="66"/>
+      <c r="L15" s="67">
         <v>38</v>
       </c>
-      <c r="M15" s="93">
+      <c r="M15" s="66">
         <v>0.27</v>
       </c>
-      <c r="N15" s="74"/>
-      <c r="O15" s="93">
+      <c r="N15" s="43"/>
+      <c r="O15" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="P15" s="94">
+      <c r="P15" s="67">
         <v>1</v>
       </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="34">
+      <c r="R15" s="26">
         <f t="shared" si="2"/>
         <v>1470.1500000000003</v>
       </c>
-      <c r="S15" s="37"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="111" t="str">
+      <c r="S15" s="29"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="97" t="str">
         <f>$B$2&amp;$F$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$8,3)&amp;"00"</f>
         <v>ELCNENUC00</v>
       </c>
-      <c r="W15" s="118" t="str">
+      <c r="W15" s="97" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(V15,2)&amp;" - "&amp;'EB1'!N3</f>
         <v>Power Plants Existing00 - Nuclear Energy</v>
       </c>
-      <c r="X15" s="111" t="str">
+      <c r="X15" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="Y15" s="111" t="str">
+      <c r="Y15" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="Z15" s="115" t="s">
+      <c r="Z15" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="AA15" s="111"/>
-      <c r="AB15" s="111"/>
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="97"/>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B16" s="28" t="str">
+      <c r="B16" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCREBIO00</v>
       </c>
-      <c r="C16" s="25" t="str">
+      <c r="C16" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L9,3)</f>
         <v>ELCBIO</v>
       </c>
-      <c r="D16" s="28" t="str">
+      <c r="D16" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="99">
+      <c r="G16" s="86">
         <f>(-'EB1'!$O$6*$I$16)/($J$16*$O$16)</f>
         <v>7.8023302733384083</v>
       </c>
-      <c r="H16" s="92"/>
-      <c r="I16" s="73">
+      <c r="H16" s="61"/>
+      <c r="I16" s="65">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J16" s="73">
+      <c r="J16" s="65">
         <v>0.6</v>
       </c>
-      <c r="K16" s="73"/>
-      <c r="L16" s="74">
+      <c r="K16" s="65"/>
+      <c r="L16" s="43">
         <v>25</v>
       </c>
-      <c r="M16" s="73">
+      <c r="M16" s="65">
         <v>0.35</v>
       </c>
-      <c r="N16" s="74">
+      <c r="N16" s="43">
         <v>25</v>
       </c>
-      <c r="O16" s="93">
+      <c r="O16" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="P16" s="94">
+      <c r="P16" s="67">
         <v>1</v>
       </c>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="34">
+      <c r="R16" s="26">
         <f t="shared" si="2"/>
         <v>147.63257250000001</v>
       </c>
-      <c r="S16" s="37"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111" t="str">
+      <c r="S16" s="29"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97" t="str">
         <f>$B$2&amp;$E$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$9,3)&amp;"00"</f>
         <v>ELCREBIO00</v>
       </c>
-      <c r="W16" s="118" t="str">
+      <c r="W16" s="97" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(V16,2)&amp;" - "&amp;'EB1'!O3</f>
         <v>Power Plants Existing00 - Biomass</v>
       </c>
-      <c r="X16" s="111" t="str">
+      <c r="X16" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="Y16" s="111" t="str">
+      <c r="Y16" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="Z16" s="115"/>
-      <c r="AA16" s="111"/>
-      <c r="AB16" s="111"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="97"/>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B17" s="28" t="str">
+      <c r="B17" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCREHYD00</v>
       </c>
-      <c r="C17" s="25" t="str">
+      <c r="C17" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L10,3)</f>
         <v>ELCHYD</v>
       </c>
-      <c r="D17" s="28" t="str">
+      <c r="D17" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E17" s="74">
+      <c r="E17" s="43">
         <v>15</v>
       </c>
-      <c r="F17" s="74">
+      <c r="F17" s="43">
         <v>16</v>
       </c>
-      <c r="G17" s="103"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="73">
+      <c r="G17" s="90"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="65">
         <v>1</v>
       </c>
-      <c r="J17" s="73">
+      <c r="J17" s="65">
         <v>0.5</v>
       </c>
-      <c r="K17" s="73"/>
-      <c r="L17" s="74">
+      <c r="K17" s="65"/>
+      <c r="L17" s="43">
         <v>50</v>
       </c>
-      <c r="M17" s="73">
+      <c r="M17" s="65">
         <v>2</v>
       </c>
-      <c r="N17" s="74">
+      <c r="N17" s="43">
         <v>50</v>
       </c>
-      <c r="O17" s="93">
+      <c r="O17" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="P17" s="94">
+      <c r="P17" s="67">
         <v>0.5</v>
       </c>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="34">
+      <c r="R17" s="26">
         <f>(E17+F17)*$J17*$O17</f>
         <v>488.80799999999999</v>
       </c>
-      <c r="S17" s="37"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="111" t="str">
+      <c r="S17" s="29"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="97" t="str">
         <f>$B$2&amp;$E$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$10,3)&amp;"00"</f>
         <v>ELCREHYD00</v>
       </c>
-      <c r="W17" s="118" t="str">
+      <c r="W17" s="97" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(V17,2)&amp;" - "&amp;'EB1'!P3</f>
         <v>Power Plants Existing00 - Hydro power</v>
       </c>
-      <c r="X17" s="111" t="str">
+      <c r="X17" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="Y17" s="111" t="str">
+      <c r="Y17" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="Z17" s="111"/>
-      <c r="AA17" s="111"/>
-      <c r="AB17" s="111"/>
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="97"/>
+      <c r="AB17" s="97"/>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B18" s="28" t="str">
+      <c r="B18" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCREWIN00</v>
       </c>
-      <c r="C18" s="25" t="str">
+      <c r="C18" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L11,3)</f>
         <v>ELCWIN</v>
       </c>
-      <c r="D18" s="28" t="str">
+      <c r="D18" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="99">
+      <c r="G18" s="86">
         <f>(-'EB1'!$Q$6*$I$18)/($J$18*$O$18)</f>
         <v>23.908866057838662</v>
       </c>
-      <c r="H18" s="92"/>
-      <c r="I18" s="73">
+      <c r="H18" s="61"/>
+      <c r="I18" s="65">
         <v>1</v>
       </c>
-      <c r="J18" s="73">
+      <c r="J18" s="65">
         <v>0.35</v>
       </c>
-      <c r="K18" s="73"/>
-      <c r="L18" s="74">
+      <c r="K18" s="65"/>
+      <c r="L18" s="43">
         <v>35</v>
       </c>
-      <c r="M18" s="73">
+      <c r="M18" s="65">
         <v>0.5</v>
       </c>
-      <c r="N18" s="74">
+      <c r="N18" s="43">
         <v>20</v>
       </c>
-      <c r="O18" s="93">
+      <c r="O18" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="P18" s="94">
+      <c r="P18" s="67">
         <v>0.3</v>
       </c>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="34">
+      <c r="R18" s="26">
         <f t="shared" si="2"/>
         <v>263.8965</v>
       </c>
-      <c r="S18" s="37"/>
-      <c r="T18" s="111"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="111" t="str">
+      <c r="S18" s="29"/>
+      <c r="T18" s="97"/>
+      <c r="U18" s="97"/>
+      <c r="V18" s="97" t="str">
         <f>$B$2&amp;$E$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$11,3)&amp;"00"</f>
         <v>ELCREWIN00</v>
       </c>
-      <c r="W18" s="118" t="str">
+      <c r="W18" s="97" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(V18,2)&amp;" - "&amp;'EB1'!Q3</f>
         <v>Power Plants Existing00 - Wind energy</v>
       </c>
-      <c r="X18" s="111" t="str">
+      <c r="X18" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="Y18" s="111" t="str">
+      <c r="Y18" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="Z18" s="111"/>
-      <c r="AA18" s="111"/>
-      <c r="AB18" s="111"/>
+      <c r="Z18" s="97"/>
+      <c r="AA18" s="97"/>
+      <c r="AB18" s="97"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B19" s="28" t="str">
+      <c r="B19" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ELCRESOL00</v>
       </c>
-      <c r="C19" s="25" t="str">
+      <c r="C19" s="21" t="str">
         <f>$B$2&amp;RIGHT(Sector_Fuels_ELC!L12,3)</f>
         <v>ELCSOL</v>
       </c>
-      <c r="D19" s="28" t="str">
+      <c r="D19" s="21" t="str">
         <f t="shared" si="1"/>
         <v>ELC</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="99">
+      <c r="G19" s="86">
         <f>(-'EB1'!$R$6*$I$19)/($J$19*$O$19)</f>
         <v>7.1875528496533061</v>
       </c>
-      <c r="H19" s="92"/>
-      <c r="I19" s="73">
+      <c r="H19" s="61"/>
+      <c r="I19" s="65">
         <v>1</v>
       </c>
-      <c r="J19" s="73">
+      <c r="J19" s="65">
         <v>0.3</v>
       </c>
-      <c r="K19" s="73"/>
-      <c r="L19" s="74">
+      <c r="K19" s="65"/>
+      <c r="L19" s="43">
         <v>60</v>
       </c>
-      <c r="M19" s="73"/>
-      <c r="N19" s="74">
+      <c r="M19" s="65"/>
+      <c r="N19" s="43">
         <v>15</v>
       </c>
-      <c r="O19" s="93">
+      <c r="O19" s="66">
         <v>31.536000000000001</v>
       </c>
-      <c r="P19" s="94">
+      <c r="P19" s="67">
         <v>0.2</v>
       </c>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="34">
+      <c r="R19" s="26">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="S19" s="37"/>
-      <c r="T19" s="111"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="111" t="str">
+      <c r="S19" s="29"/>
+      <c r="T19" s="97"/>
+      <c r="U19" s="97"/>
+      <c r="V19" s="97" t="str">
         <f>$B$2&amp;$E$5&amp;$H$2&amp;RIGHT(Sector_Fuels_ELC!$L$12,3)&amp;"00"</f>
         <v>ELCRESOL00</v>
       </c>
-      <c r="W19" s="118" t="str">
+      <c r="W19" s="97" t="str">
         <f>$D$2&amp;" "&amp;$H$1&amp;RIGHT(V19,2)&amp;" - "&amp;'EB1'!R3</f>
         <v>Power Plants Existing00 - Solar energy</v>
       </c>
-      <c r="X19" s="111" t="str">
+      <c r="X19" s="97" t="str">
         <f t="shared" si="3"/>
         <v>PJ</v>
       </c>
-      <c r="Y19" s="111" t="str">
+      <c r="Y19" s="97" t="str">
         <f t="shared" si="4"/>
         <v>GW</v>
       </c>
-      <c r="Z19" s="111"/>
-      <c r="AA19" s="111"/>
-      <c r="AB19" s="111"/>
+      <c r="Z19" s="97"/>
+      <c r="AA19" s="97"/>
+      <c r="AB19" s="97"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="R21" s="97"/>
+      <c r="R21" s="85"/>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="R22" s="97"/>
+      <c r="R22" s="85"/>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B23" s="52"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R23" s="97"/>
+        <v>168</v>
+      </c>
+      <c r="R23" s="85"/>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B24" s="68"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="R24" s="97"/>
+      <c r="R24" s="85"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="R25" s="97"/>
+      <c r="R25" s="85"/>
     </row>
     <row r="65536" spans="19:19" x14ac:dyDescent="0.2">
-      <c r="S65536" s="37"/>
+      <c r="S65536" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7131,7 +7025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B3:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7144,105 +7038,95 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-    </row>
-    <row r="4" spans="2:10" s="6" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="C5" s="33"/>
     </row>
     <row r="6" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="45" t="str">
+      <c r="C6" s="37" t="str">
         <f>Sector_Fuels_ELC!$L$5</f>
         <v>ELCCOA</v>
       </c>
-      <c r="D6" s="45" t="str">
+      <c r="D6" s="37" t="str">
         <f>Sector_Fuels_ELC!$L$6</f>
         <v>ELCGAS</v>
       </c>
-      <c r="E6" s="45" t="str">
+      <c r="E6" s="37" t="str">
         <f>Sector_Fuels_ELC!$L$7</f>
         <v>ELCOIL</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="25" t="str">
+      <c r="B8" s="21" t="str">
         <f>Con_ELC!$V$6</f>
         <v>ELCCO2</v>
       </c>
-      <c r="C8" s="73">
+      <c r="C8" s="65">
         <v>95</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="65">
         <v>56.1</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="65">
         <v>76.400000000000006</v>
       </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-    </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="52"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="68"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="1" t="s">
         <v>145</v>
       </c>
